--- a/StockAnalyzer/Documents/FCF.xlsx
+++ b/StockAnalyzer/Documents/FCF.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\r\Rollover\StockAnalyzer\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B020E2E-4169-47AD-A0A9-E05B99BC02DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{310088CD-8B92-481D-B74B-9E6424D9C0BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-54135" yWindow="8415" windowWidth="25470" windowHeight="15420" xr2:uid="{86B76565-99B1-4BFD-86A7-84DD5AE41E2F}"/>
+    <workbookView xWindow="-135" yWindow="-135" windowWidth="29070" windowHeight="15870" activeTab="1" xr2:uid="{86B76565-99B1-4BFD-86A7-84DD5AE41E2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="21">
   <si>
     <t>Symbol</t>
   </si>
@@ -90,6 +91,15 @@
   </si>
   <si>
     <t>List&lt;SymbolDateTwoValues&gt;</t>
+  </si>
+  <si>
+    <t>Cash from operation</t>
+  </si>
+  <si>
+    <t>Cap. ex.</t>
+  </si>
+  <si>
+    <t>Free cash flow</t>
   </si>
 </sst>
 </file>
@@ -145,7 +155,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -155,9 +165,6 @@
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -553,8 +560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B442B7E-6DD1-48F9-ABC4-9C2EAC6DBDB9}">
   <dimension ref="A1:BA40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1584,7 +1591,7 @@
       <c r="M27" s="5">
         <v>101746000000</v>
       </c>
-      <c r="Q27" s="9">
+      <c r="Q27" s="1">
         <v>45291</v>
       </c>
     </row>
@@ -1610,7 +1617,7 @@
       <c r="M28" s="1">
         <v>45473</v>
       </c>
-      <c r="Q28" s="10">
+      <c r="Q28" s="2">
         <v>101746000000</v>
       </c>
     </row>
@@ -1621,7 +1628,7 @@
       <c r="L29" s="4">
         <v>32251000000</v>
       </c>
-      <c r="Q29" s="11">
+      <c r="Q29">
         <v>32251000000</v>
       </c>
     </row>
@@ -1719,10 +1726,10 @@
       <c r="O32" s="5">
         <v>118548000000</v>
       </c>
-      <c r="Q32" s="9">
+      <c r="Q32" s="1">
         <v>45107</v>
       </c>
-      <c r="R32" s="9">
+      <c r="R32" s="1">
         <v>45473</v>
       </c>
     </row>
@@ -1751,10 +1758,10 @@
       <c r="M33" s="3">
         <v>45473</v>
       </c>
-      <c r="Q33" s="11">
+      <c r="Q33">
         <v>87582000000</v>
       </c>
-      <c r="R33" s="10">
+      <c r="R33" s="2">
         <v>118548000000</v>
       </c>
     </row>
@@ -1774,10 +1781,10 @@
       <c r="M34" s="4">
         <v>44477000000</v>
       </c>
-      <c r="Q34" s="10">
+      <c r="Q34" s="2">
         <v>28107000000</v>
       </c>
-      <c r="R34" s="11">
+      <c r="R34">
         <v>44477000000</v>
       </c>
     </row>
@@ -1803,18 +1810,1213 @@
       </c>
     </row>
     <row r="38" spans="1:20" ht="21" x14ac:dyDescent="0.35">
-      <c r="Q38" s="12" t="s">
+      <c r="Q38" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="R40" s="9"/>
-      <c r="S40" s="9"/>
-      <c r="T40" s="9"/>
+      <c r="R40" s="1"/>
+      <c r="S40" s="1"/>
+      <c r="T40" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5BE65AC-56CF-44EB-B38A-6A64E42765EF}">
+  <dimension ref="A1:S53"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="14" max="14" width="11.42578125" customWidth="1"/>
+    <col min="16" max="16" width="7.140625" customWidth="1"/>
+    <col min="18" max="18" width="7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1">
+        <v>40937</v>
+      </c>
+      <c r="O1" s="3">
+        <v>40937</v>
+      </c>
+      <c r="Q1" s="3">
+        <v>40937</v>
+      </c>
+      <c r="S1" s="3">
+        <v>40937</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2">
+        <v>909156000</v>
+      </c>
+      <c r="O2" s="1">
+        <v>42369</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>42369</v>
+      </c>
+      <c r="S2" s="3">
+        <v>40178</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3">
+        <v>138735000</v>
+      </c>
+      <c r="O3" s="1">
+        <v>42735</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>42735</v>
+      </c>
+      <c r="S3" s="3">
+        <v>40359</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <v>770421000</v>
+      </c>
+      <c r="O4" s="1">
+        <v>43100</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>43100</v>
+      </c>
+      <c r="S4" s="3">
+        <v>40724</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O5" s="1">
+        <v>43465</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>43465</v>
+      </c>
+      <c r="S5" s="3">
+        <v>40908</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1">
+        <v>42369</v>
+      </c>
+      <c r="C6" s="1">
+        <v>42735</v>
+      </c>
+      <c r="D6" s="1">
+        <v>43100</v>
+      </c>
+      <c r="E6" s="1">
+        <v>43465</v>
+      </c>
+      <c r="F6" s="1">
+        <v>43830</v>
+      </c>
+      <c r="G6" s="1">
+        <v>44196</v>
+      </c>
+      <c r="H6" s="1">
+        <v>44561</v>
+      </c>
+      <c r="I6" s="1">
+        <v>44926</v>
+      </c>
+      <c r="J6" s="1">
+        <v>45291</v>
+      </c>
+      <c r="O6" s="1">
+        <v>43830</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>43830</v>
+      </c>
+      <c r="S6" s="3">
+        <v>41090</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7">
+        <v>26024000000</v>
+      </c>
+      <c r="C7">
+        <v>36036000000</v>
+      </c>
+      <c r="D7">
+        <v>37091000000</v>
+      </c>
+      <c r="E7">
+        <v>47971000000</v>
+      </c>
+      <c r="F7">
+        <v>54520000000</v>
+      </c>
+      <c r="G7">
+        <v>65124000000</v>
+      </c>
+      <c r="H7">
+        <v>91652000000</v>
+      </c>
+      <c r="I7">
+        <v>91495000000</v>
+      </c>
+      <c r="J7">
+        <v>101746000000</v>
+      </c>
+      <c r="O7" s="1">
+        <v>44196</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>44196</v>
+      </c>
+      <c r="S7" s="3">
+        <v>41274</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8">
+        <v>9915000000</v>
+      </c>
+      <c r="C8">
+        <v>10212000000</v>
+      </c>
+      <c r="D8">
+        <v>13184000000</v>
+      </c>
+      <c r="E8">
+        <v>25139000000</v>
+      </c>
+      <c r="F8">
+        <v>23548000000</v>
+      </c>
+      <c r="G8">
+        <v>22281000000</v>
+      </c>
+      <c r="H8">
+        <v>24640000000</v>
+      </c>
+      <c r="I8">
+        <v>31485000000</v>
+      </c>
+      <c r="J8">
+        <v>32251000000</v>
+      </c>
+      <c r="O8" s="1">
+        <v>44561</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>44561</v>
+      </c>
+      <c r="S8" s="3">
+        <v>41455</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9">
+        <v>16109000000</v>
+      </c>
+      <c r="C9">
+        <v>25824000000</v>
+      </c>
+      <c r="D9">
+        <v>23907000000</v>
+      </c>
+      <c r="E9">
+        <v>22832000000</v>
+      </c>
+      <c r="F9">
+        <v>30972000000</v>
+      </c>
+      <c r="G9">
+        <v>42843000000</v>
+      </c>
+      <c r="H9">
+        <v>67012000000</v>
+      </c>
+      <c r="I9">
+        <v>60010000000</v>
+      </c>
+      <c r="J9">
+        <v>69495000000</v>
+      </c>
+      <c r="O9" s="1">
+        <v>44926</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>44926</v>
+      </c>
+      <c r="S9" s="3">
+        <v>41639</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O10" s="1">
+        <v>45291</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>45291</v>
+      </c>
+      <c r="S10" s="1">
+        <v>42004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="1">
+        <v>40359</v>
+      </c>
+      <c r="C11" s="1">
+        <v>40724</v>
+      </c>
+      <c r="D11" s="1">
+        <v>41090</v>
+      </c>
+      <c r="E11" s="1">
+        <v>41455</v>
+      </c>
+      <c r="F11" s="1">
+        <v>43281</v>
+      </c>
+      <c r="G11" s="1">
+        <v>43646</v>
+      </c>
+      <c r="H11" s="1">
+        <v>44012</v>
+      </c>
+      <c r="I11" s="1">
+        <v>44377</v>
+      </c>
+      <c r="J11" s="1">
+        <v>44742</v>
+      </c>
+      <c r="K11" s="1">
+        <v>45107</v>
+      </c>
+      <c r="L11" s="1">
+        <v>45473</v>
+      </c>
+      <c r="O11" s="3">
+        <v>40359</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>40359</v>
+      </c>
+      <c r="S11" s="1">
+        <v>42369</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12">
+        <v>24073000000</v>
+      </c>
+      <c r="C12">
+        <v>26994000000</v>
+      </c>
+      <c r="D12">
+        <v>31626000000</v>
+      </c>
+      <c r="E12">
+        <v>28833000000</v>
+      </c>
+      <c r="F12">
+        <v>43884000000</v>
+      </c>
+      <c r="G12">
+        <v>52185000000</v>
+      </c>
+      <c r="H12">
+        <v>60675000000</v>
+      </c>
+      <c r="I12">
+        <v>76740000000</v>
+      </c>
+      <c r="J12">
+        <v>89035000000</v>
+      </c>
+      <c r="K12">
+        <v>87582000000</v>
+      </c>
+      <c r="L12">
+        <v>118548000000</v>
+      </c>
+      <c r="O12" s="3">
+        <v>40724</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>40724</v>
+      </c>
+      <c r="S12" s="1">
+        <v>42735</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13">
+        <v>1977000000</v>
+      </c>
+      <c r="C13">
+        <v>2355000000</v>
+      </c>
+      <c r="D13">
+        <v>2305000000</v>
+      </c>
+      <c r="E13">
+        <v>4257000000</v>
+      </c>
+      <c r="F13">
+        <v>11632000000</v>
+      </c>
+      <c r="G13">
+        <v>13925000000</v>
+      </c>
+      <c r="H13">
+        <v>15441000000</v>
+      </c>
+      <c r="I13">
+        <v>20622000000</v>
+      </c>
+      <c r="J13">
+        <v>23886000000</v>
+      </c>
+      <c r="K13">
+        <v>28107000000</v>
+      </c>
+      <c r="L13">
+        <v>44477000000</v>
+      </c>
+      <c r="O13" s="3">
+        <v>41090</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>41090</v>
+      </c>
+      <c r="S13" s="1">
+        <v>43008</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14">
+        <v>22096000000</v>
+      </c>
+      <c r="C14">
+        <v>24639000000</v>
+      </c>
+      <c r="D14">
+        <v>29321000000</v>
+      </c>
+      <c r="E14">
+        <v>24576000000</v>
+      </c>
+      <c r="F14">
+        <v>32252000000</v>
+      </c>
+      <c r="G14">
+        <v>38260000000</v>
+      </c>
+      <c r="H14">
+        <v>45234000000</v>
+      </c>
+      <c r="I14">
+        <v>56118000000</v>
+      </c>
+      <c r="J14">
+        <v>65149000000</v>
+      </c>
+      <c r="K14">
+        <v>59475000000</v>
+      </c>
+      <c r="L14">
+        <v>74071000000</v>
+      </c>
+      <c r="O14" s="3">
+        <v>41455</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>41455</v>
+      </c>
+      <c r="S14" s="1">
+        <v>43100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N15" s="1"/>
+      <c r="O15" s="3">
+        <v>43281</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>43281</v>
+      </c>
+      <c r="S15" s="3">
+        <v>43281</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="1">
+        <v>43008</v>
+      </c>
+      <c r="C16" s="1">
+        <v>43372</v>
+      </c>
+      <c r="D16" s="1">
+        <v>43736</v>
+      </c>
+      <c r="E16" s="1">
+        <v>44100</v>
+      </c>
+      <c r="F16" s="1">
+        <v>44464</v>
+      </c>
+      <c r="G16" s="1">
+        <v>44828</v>
+      </c>
+      <c r="H16" s="1">
+        <v>45199</v>
+      </c>
+      <c r="O16" s="3">
+        <v>43646</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>43646</v>
+      </c>
+      <c r="S16" s="1">
+        <v>43372</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <v>63598000000</v>
+      </c>
+      <c r="C17">
+        <v>77434000000</v>
+      </c>
+      <c r="D17">
+        <v>69391000000</v>
+      </c>
+      <c r="E17">
+        <v>80674000000</v>
+      </c>
+      <c r="F17">
+        <v>104038000000</v>
+      </c>
+      <c r="G17">
+        <v>122151000000</v>
+      </c>
+      <c r="H17">
+        <v>110543000000</v>
+      </c>
+      <c r="O17" s="3">
+        <v>44012</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>44012</v>
+      </c>
+      <c r="S17" s="1">
+        <v>43465</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18">
+        <v>12451000000</v>
+      </c>
+      <c r="C18">
+        <v>13313000000</v>
+      </c>
+      <c r="D18">
+        <v>10495000000</v>
+      </c>
+      <c r="E18">
+        <v>7309000000</v>
+      </c>
+      <c r="F18">
+        <v>11085000000</v>
+      </c>
+      <c r="G18">
+        <v>10708000000</v>
+      </c>
+      <c r="H18">
+        <v>10959000000</v>
+      </c>
+      <c r="O18" s="3">
+        <v>44377</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>44377</v>
+      </c>
+      <c r="S18" s="3">
+        <v>43646</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19">
+        <v>51147000000</v>
+      </c>
+      <c r="C19">
+        <v>64121000000</v>
+      </c>
+      <c r="D19">
+        <v>58896000000</v>
+      </c>
+      <c r="E19">
+        <v>73365000000</v>
+      </c>
+      <c r="F19">
+        <v>92953000000</v>
+      </c>
+      <c r="G19">
+        <v>111443000000</v>
+      </c>
+      <c r="H19">
+        <v>99584000000</v>
+      </c>
+      <c r="O19" s="3">
+        <v>44742</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>44742</v>
+      </c>
+      <c r="S19" s="1">
+        <v>43736</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O20" s="3">
+        <v>45107</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>45107</v>
+      </c>
+      <c r="S20" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="O21" s="3">
+        <v>45473</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>45473</v>
+      </c>
+      <c r="S21" s="3">
+        <v>44012</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22">
+        <v>3293000000</v>
+      </c>
+      <c r="C22">
+        <v>4180000000</v>
+      </c>
+      <c r="D22">
+        <v>5475000000</v>
+      </c>
+      <c r="E22">
+        <v>16443000000</v>
+      </c>
+      <c r="O22" s="1">
+        <v>43008</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>43008</v>
+      </c>
+      <c r="S22" s="1">
+        <v>44100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23">
+        <v>373000000</v>
+      </c>
+      <c r="C23">
+        <v>3785000000</v>
+      </c>
+      <c r="D23">
+        <v>3444000000</v>
+      </c>
+      <c r="E23">
+        <v>6737000000</v>
+      </c>
+      <c r="O23" s="1">
+        <v>43372</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>43372</v>
+      </c>
+      <c r="S23" s="1">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24">
+        <v>2920000000</v>
+      </c>
+      <c r="C24">
+        <v>395000000</v>
+      </c>
+      <c r="D24">
+        <v>2031000000</v>
+      </c>
+      <c r="E24">
+        <v>9706000000</v>
+      </c>
+      <c r="O24" s="1">
+        <v>43736</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>43736</v>
+      </c>
+      <c r="S24" s="3">
+        <v>44377</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O25" s="1">
+        <v>44100</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>44100</v>
+      </c>
+      <c r="S25" s="1">
+        <v>44464</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="1">
+        <v>41274</v>
+      </c>
+      <c r="C26" s="1">
+        <v>41639</v>
+      </c>
+      <c r="D26" s="1">
+        <v>42004</v>
+      </c>
+      <c r="E26" s="1">
+        <v>42369</v>
+      </c>
+      <c r="F26" s="1">
+        <v>42735</v>
+      </c>
+      <c r="G26" s="1">
+        <v>43100</v>
+      </c>
+      <c r="H26" s="1">
+        <v>43465</v>
+      </c>
+      <c r="I26" s="1">
+        <v>43830</v>
+      </c>
+      <c r="J26" s="1">
+        <v>44196</v>
+      </c>
+      <c r="K26" s="1">
+        <v>44561</v>
+      </c>
+      <c r="L26" s="1">
+        <v>44926</v>
+      </c>
+      <c r="M26" s="1">
+        <v>45291</v>
+      </c>
+      <c r="O26" s="1">
+        <v>44464</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>44464</v>
+      </c>
+      <c r="S26" s="1">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27">
+        <v>1612000000</v>
+      </c>
+      <c r="C27">
+        <v>4222000000</v>
+      </c>
+      <c r="D27">
+        <v>5457000000</v>
+      </c>
+      <c r="E27">
+        <v>8599000000</v>
+      </c>
+      <c r="F27">
+        <v>16108000000</v>
+      </c>
+      <c r="G27">
+        <v>24216000000</v>
+      </c>
+      <c r="H27">
+        <v>29274000000</v>
+      </c>
+      <c r="I27">
+        <v>36314000000</v>
+      </c>
+      <c r="J27">
+        <v>38747000000</v>
+      </c>
+      <c r="K27">
+        <v>57683000000</v>
+      </c>
+      <c r="L27">
+        <v>50475000000</v>
+      </c>
+      <c r="M27">
+        <v>71113000000</v>
+      </c>
+      <c r="O27" s="1">
+        <v>44828</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>44828</v>
+      </c>
+      <c r="S27" s="3">
+        <v>44742</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28">
+        <v>1235000000</v>
+      </c>
+      <c r="C28">
+        <v>1362000000</v>
+      </c>
+      <c r="D28">
+        <v>1831000000</v>
+      </c>
+      <c r="E28">
+        <v>2523000000</v>
+      </c>
+      <c r="F28">
+        <v>4491000000</v>
+      </c>
+      <c r="G28">
+        <v>6733000000</v>
+      </c>
+      <c r="H28">
+        <v>13915000000</v>
+      </c>
+      <c r="I28">
+        <v>15102000000</v>
+      </c>
+      <c r="J28">
+        <v>15115000000</v>
+      </c>
+      <c r="K28">
+        <v>18567000000</v>
+      </c>
+      <c r="L28">
+        <v>31431000000</v>
+      </c>
+      <c r="M28">
+        <v>27266000000</v>
+      </c>
+      <c r="O28" s="1">
+        <v>45199</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>45199</v>
+      </c>
+      <c r="S28" s="1">
+        <v>44828</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29">
+        <v>377000000</v>
+      </c>
+      <c r="C29">
+        <v>2860000000</v>
+      </c>
+      <c r="D29">
+        <v>3626000000</v>
+      </c>
+      <c r="E29">
+        <v>6076000000</v>
+      </c>
+      <c r="F29">
+        <v>11617000000</v>
+      </c>
+      <c r="G29">
+        <v>17483000000</v>
+      </c>
+      <c r="H29">
+        <v>15359000000</v>
+      </c>
+      <c r="I29">
+        <v>21212000000</v>
+      </c>
+      <c r="J29">
+        <v>23632000000</v>
+      </c>
+      <c r="K29">
+        <v>39116000000</v>
+      </c>
+      <c r="L29">
+        <v>19044000000</v>
+      </c>
+      <c r="M29">
+        <v>43847000000</v>
+      </c>
+      <c r="O29" s="3">
+        <v>40178</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>40178</v>
+      </c>
+      <c r="S29" s="1">
+        <v>44926</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O30" s="3">
+        <v>41274</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>41274</v>
+      </c>
+      <c r="S30" s="3">
+        <v>45107</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="1">
+        <v>40908</v>
+      </c>
+      <c r="C31" s="1">
+        <v>41274</v>
+      </c>
+      <c r="D31" s="1">
+        <v>41639</v>
+      </c>
+      <c r="E31" s="1">
+        <v>43465</v>
+      </c>
+      <c r="F31" s="1">
+        <v>43830</v>
+      </c>
+      <c r="G31" s="1">
+        <v>44196</v>
+      </c>
+      <c r="H31" s="1">
+        <v>44561</v>
+      </c>
+      <c r="I31" s="1">
+        <v>44926</v>
+      </c>
+      <c r="J31" s="1">
+        <v>45291</v>
+      </c>
+      <c r="O31" s="3">
+        <v>41639</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>41639</v>
+      </c>
+      <c r="S31" s="1">
+        <v>45199</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32">
+        <v>-114364000</v>
+      </c>
+      <c r="C32">
+        <v>-266081000</v>
+      </c>
+      <c r="D32">
+        <v>257994000</v>
+      </c>
+      <c r="E32">
+        <v>2097802000</v>
+      </c>
+      <c r="F32">
+        <v>2405000000</v>
+      </c>
+      <c r="G32">
+        <v>5943000000</v>
+      </c>
+      <c r="H32">
+        <v>11497000000</v>
+      </c>
+      <c r="I32">
+        <v>14724000000</v>
+      </c>
+      <c r="J32">
+        <v>13256000000</v>
+      </c>
+      <c r="O32" s="3">
+        <v>42735</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>42004</v>
+      </c>
+      <c r="S32" s="1">
+        <v>45291</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33">
+        <v>197896000</v>
+      </c>
+      <c r="C33">
+        <v>239228000</v>
+      </c>
+      <c r="D33">
+        <v>264224000</v>
+      </c>
+      <c r="E33">
+        <v>2100724000</v>
+      </c>
+      <c r="F33">
+        <v>1327000000</v>
+      </c>
+      <c r="G33">
+        <v>3157000000</v>
+      </c>
+      <c r="H33">
+        <v>6482000000</v>
+      </c>
+      <c r="I33">
+        <v>7158000000</v>
+      </c>
+      <c r="J33">
+        <v>8898000000</v>
+      </c>
+      <c r="O33" s="1">
+        <v>41274</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>40908</v>
+      </c>
+      <c r="S33" s="3">
+        <v>45473</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34">
+        <v>-312260000</v>
+      </c>
+      <c r="C34">
+        <v>-505309000</v>
+      </c>
+      <c r="D34">
+        <v>-6230000</v>
+      </c>
+      <c r="E34">
+        <v>-2922000</v>
+      </c>
+      <c r="F34">
+        <v>1078000000</v>
+      </c>
+      <c r="G34">
+        <v>2786000000</v>
+      </c>
+      <c r="H34">
+        <v>5015000000</v>
+      </c>
+      <c r="I34">
+        <v>7566000000</v>
+      </c>
+      <c r="J34">
+        <v>4358000000</v>
+      </c>
+      <c r="O34" s="1">
+        <v>41639</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O35" s="1">
+        <v>42004</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O36" s="1">
+        <v>42369</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O37" s="1">
+        <v>42735</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O38" s="1">
+        <v>43100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O39" s="1">
+        <v>43465</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O40" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O41" s="1">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O42" s="1">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O43" s="1">
+        <v>44926</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O44" s="1">
+        <v>45291</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O45" s="3">
+        <v>40908</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O46" s="3">
+        <v>41274</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O47" s="3">
+        <v>41639</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O48" s="3">
+        <v>43465</v>
+      </c>
+    </row>
+    <row r="49" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O49" s="3">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="50" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O50" s="3">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="51" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O51" s="3">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="52" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O52" s="3">
+        <v>44926</v>
+      </c>
+    </row>
+    <row r="53" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O53" s="3">
+        <v>45291</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="S2:S33">
+    <sortCondition ref="S11:S33"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/StockAnalyzer/Documents/FCF.xlsx
+++ b/StockAnalyzer/Documents/FCF.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\r\Rollover\StockAnalyzer\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{310088CD-8B92-481D-B74B-9E6424D9C0BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D71DA5C7-CA32-4F6C-A854-D993FA823D05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-135" yWindow="-135" windowWidth="29070" windowHeight="15870" activeTab="1" xr2:uid="{86B76565-99B1-4BFD-86A7-84DD5AE41E2F}"/>
+    <workbookView xWindow="-54120" yWindow="8430" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{86B76565-99B1-4BFD-86A7-84DD5AE41E2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1831,14 +1831,16 @@
   <dimension ref="A1:S53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="14" max="14" width="11.42578125" customWidth="1"/>
+    <col min="14" max="14" width="6.5703125" customWidth="1"/>
     <col min="16" max="16" width="7.140625" customWidth="1"/>
     <col min="18" max="18" width="7" customWidth="1"/>
+    <col min="19" max="19" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
@@ -1855,7 +1857,7 @@
         <v>40937</v>
       </c>
       <c r="S1" s="3">
-        <v>40937</v>
+        <v>40178</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -1872,7 +1874,7 @@
         <v>42369</v>
       </c>
       <c r="S2" s="3">
-        <v>40178</v>
+        <v>40359</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -1889,7 +1891,7 @@
         <v>42735</v>
       </c>
       <c r="S3" s="3">
-        <v>40359</v>
+        <v>40724</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -1906,7 +1908,7 @@
         <v>43100</v>
       </c>
       <c r="S4" s="3">
-        <v>40724</v>
+        <v>40908</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -1917,7 +1919,7 @@
         <v>43465</v>
       </c>
       <c r="S5" s="3">
-        <v>40908</v>
+        <v>40937</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -3014,8 +3016,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="S2:S33">
-    <sortCondition ref="S11:S33"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="S1:S33">
+    <sortCondition ref="S5:S33"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockAnalyzer/Documents/FCF.xlsx
+++ b/StockAnalyzer/Documents/FCF.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\r\Rollover\StockAnalyzer\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D71DA5C7-CA32-4F6C-A854-D993FA823D05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B58917EA-469A-417A-89DF-F2FB1FD39298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-54120" yWindow="8430" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{86B76565-99B1-4BFD-86A7-84DD5AE41E2F}"/>
+    <workbookView xWindow="-135" yWindow="-135" windowWidth="29070" windowHeight="15870" activeTab="2" xr2:uid="{86B76565-99B1-4BFD-86A7-84DD5AE41E2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
+    <sheet name="Missing Data" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="21">
   <si>
     <t>Symbol</t>
   </si>
@@ -561,7 +562,7 @@
   <dimension ref="A1:BA40"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1830,8 +1831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5BE65AC-56CF-44EB-B38A-6A64E42765EF}">
   <dimension ref="A1:S53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3021,4 +3022,913 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5578540F-370E-4D3A-9855-F911478645D9}">
+  <dimension ref="A1:X34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O36" sqref="O36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="14" max="14" width="6.5703125" customWidth="1"/>
+    <col min="15" max="24" width="5.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1">
+        <v>40937</v>
+      </c>
+      <c r="N1" s="4">
+        <v>2014</v>
+      </c>
+      <c r="O1" s="4">
+        <v>2015</v>
+      </c>
+      <c r="P1" s="4">
+        <v>2016</v>
+      </c>
+      <c r="Q1" s="4">
+        <v>2017</v>
+      </c>
+      <c r="R1" s="4">
+        <v>2018</v>
+      </c>
+      <c r="S1" s="4">
+        <v>2019</v>
+      </c>
+      <c r="T1" s="4">
+        <v>2020</v>
+      </c>
+      <c r="U1" s="4">
+        <v>2021</v>
+      </c>
+      <c r="V1" s="4">
+        <v>2022</v>
+      </c>
+      <c r="W1" s="4">
+        <v>2023</v>
+      </c>
+      <c r="X1" s="4">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2">
+        <v>909156000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3">
+        <v>138735000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <v>770421000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1">
+        <v>42369</v>
+      </c>
+      <c r="C6" s="1">
+        <v>42735</v>
+      </c>
+      <c r="D6" s="1">
+        <v>43100</v>
+      </c>
+      <c r="E6" s="1">
+        <v>43465</v>
+      </c>
+      <c r="F6" s="1">
+        <v>43830</v>
+      </c>
+      <c r="G6" s="1">
+        <v>44196</v>
+      </c>
+      <c r="H6" s="1">
+        <v>44561</v>
+      </c>
+      <c r="I6" s="1">
+        <v>44926</v>
+      </c>
+      <c r="J6" s="1">
+        <v>45291</v>
+      </c>
+      <c r="N6" s="4">
+        <v>2014</v>
+      </c>
+      <c r="X6" s="4">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7">
+        <v>26024000000</v>
+      </c>
+      <c r="C7">
+        <v>36036000000</v>
+      </c>
+      <c r="D7">
+        <v>37091000000</v>
+      </c>
+      <c r="E7">
+        <v>47971000000</v>
+      </c>
+      <c r="F7">
+        <v>54520000000</v>
+      </c>
+      <c r="G7">
+        <v>65124000000</v>
+      </c>
+      <c r="H7">
+        <v>91652000000</v>
+      </c>
+      <c r="I7">
+        <v>91495000000</v>
+      </c>
+      <c r="J7">
+        <v>101746000000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8">
+        <v>9915000000</v>
+      </c>
+      <c r="C8">
+        <v>10212000000</v>
+      </c>
+      <c r="D8">
+        <v>13184000000</v>
+      </c>
+      <c r="E8">
+        <v>25139000000</v>
+      </c>
+      <c r="F8">
+        <v>23548000000</v>
+      </c>
+      <c r="G8">
+        <v>22281000000</v>
+      </c>
+      <c r="H8">
+        <v>24640000000</v>
+      </c>
+      <c r="I8">
+        <v>31485000000</v>
+      </c>
+      <c r="J8">
+        <v>32251000000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9">
+        <v>16109000000</v>
+      </c>
+      <c r="C9">
+        <v>25824000000</v>
+      </c>
+      <c r="D9">
+        <v>23907000000</v>
+      </c>
+      <c r="E9">
+        <v>22832000000</v>
+      </c>
+      <c r="F9">
+        <v>30972000000</v>
+      </c>
+      <c r="G9">
+        <v>42843000000</v>
+      </c>
+      <c r="H9">
+        <v>67012000000</v>
+      </c>
+      <c r="I9">
+        <v>60010000000</v>
+      </c>
+      <c r="J9">
+        <v>69495000000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="1">
+        <v>40359</v>
+      </c>
+      <c r="C11" s="1">
+        <v>40724</v>
+      </c>
+      <c r="D11" s="1">
+        <v>41090</v>
+      </c>
+      <c r="E11" s="1">
+        <v>41455</v>
+      </c>
+      <c r="F11" s="1">
+        <v>43281</v>
+      </c>
+      <c r="G11" s="1">
+        <v>43646</v>
+      </c>
+      <c r="H11" s="1">
+        <v>44012</v>
+      </c>
+      <c r="I11" s="1">
+        <v>44377</v>
+      </c>
+      <c r="J11" s="1">
+        <v>44742</v>
+      </c>
+      <c r="K11" s="1">
+        <v>45107</v>
+      </c>
+      <c r="L11" s="1">
+        <v>45473</v>
+      </c>
+      <c r="N11" s="4">
+        <v>2014</v>
+      </c>
+      <c r="O11" s="4">
+        <v>2015</v>
+      </c>
+      <c r="P11" s="4">
+        <v>2016</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12">
+        <v>24073000000</v>
+      </c>
+      <c r="C12">
+        <v>26994000000</v>
+      </c>
+      <c r="D12">
+        <v>31626000000</v>
+      </c>
+      <c r="E12">
+        <v>28833000000</v>
+      </c>
+      <c r="F12">
+        <v>43884000000</v>
+      </c>
+      <c r="G12">
+        <v>52185000000</v>
+      </c>
+      <c r="H12">
+        <v>60675000000</v>
+      </c>
+      <c r="I12">
+        <v>76740000000</v>
+      </c>
+      <c r="J12">
+        <v>89035000000</v>
+      </c>
+      <c r="K12">
+        <v>87582000000</v>
+      </c>
+      <c r="L12">
+        <v>118548000000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13">
+        <v>1977000000</v>
+      </c>
+      <c r="C13">
+        <v>2355000000</v>
+      </c>
+      <c r="D13">
+        <v>2305000000</v>
+      </c>
+      <c r="E13">
+        <v>4257000000</v>
+      </c>
+      <c r="F13">
+        <v>11632000000</v>
+      </c>
+      <c r="G13">
+        <v>13925000000</v>
+      </c>
+      <c r="H13">
+        <v>15441000000</v>
+      </c>
+      <c r="I13">
+        <v>20622000000</v>
+      </c>
+      <c r="J13">
+        <v>23886000000</v>
+      </c>
+      <c r="K13">
+        <v>28107000000</v>
+      </c>
+      <c r="L13">
+        <v>44477000000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14">
+        <v>22096000000</v>
+      </c>
+      <c r="C14">
+        <v>24639000000</v>
+      </c>
+      <c r="D14">
+        <v>29321000000</v>
+      </c>
+      <c r="E14">
+        <v>24576000000</v>
+      </c>
+      <c r="F14">
+        <v>32252000000</v>
+      </c>
+      <c r="G14">
+        <v>38260000000</v>
+      </c>
+      <c r="H14">
+        <v>45234000000</v>
+      </c>
+      <c r="I14">
+        <v>56118000000</v>
+      </c>
+      <c r="J14">
+        <v>65149000000</v>
+      </c>
+      <c r="K14">
+        <v>59475000000</v>
+      </c>
+      <c r="L14">
+        <v>74071000000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="N15" s="1"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="1">
+        <v>43008</v>
+      </c>
+      <c r="C16" s="1">
+        <v>43372</v>
+      </c>
+      <c r="D16" s="1">
+        <v>43736</v>
+      </c>
+      <c r="E16" s="1">
+        <v>44100</v>
+      </c>
+      <c r="F16" s="1">
+        <v>44464</v>
+      </c>
+      <c r="G16" s="1">
+        <v>44828</v>
+      </c>
+      <c r="H16" s="1">
+        <v>45199</v>
+      </c>
+      <c r="N16" s="4">
+        <v>2014</v>
+      </c>
+      <c r="O16" s="4">
+        <v>2015</v>
+      </c>
+      <c r="P16" s="4">
+        <v>2016</v>
+      </c>
+      <c r="X16" s="4">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <v>63598000000</v>
+      </c>
+      <c r="C17">
+        <v>77434000000</v>
+      </c>
+      <c r="D17">
+        <v>69391000000</v>
+      </c>
+      <c r="E17">
+        <v>80674000000</v>
+      </c>
+      <c r="F17">
+        <v>104038000000</v>
+      </c>
+      <c r="G17">
+        <v>122151000000</v>
+      </c>
+      <c r="H17">
+        <v>110543000000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18">
+        <v>12451000000</v>
+      </c>
+      <c r="C18">
+        <v>13313000000</v>
+      </c>
+      <c r="D18">
+        <v>10495000000</v>
+      </c>
+      <c r="E18">
+        <v>7309000000</v>
+      </c>
+      <c r="F18">
+        <v>11085000000</v>
+      </c>
+      <c r="G18">
+        <v>10708000000</v>
+      </c>
+      <c r="H18">
+        <v>10959000000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19">
+        <v>51147000000</v>
+      </c>
+      <c r="C19">
+        <v>64121000000</v>
+      </c>
+      <c r="D19">
+        <v>58896000000</v>
+      </c>
+      <c r="E19">
+        <v>73365000000</v>
+      </c>
+      <c r="F19">
+        <v>92953000000</v>
+      </c>
+      <c r="G19">
+        <v>111443000000</v>
+      </c>
+      <c r="H19">
+        <v>99584000000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="1">
+        <v>40178</v>
+      </c>
+      <c r="C21" s="1">
+        <v>41274</v>
+      </c>
+      <c r="D21" s="1">
+        <v>41639</v>
+      </c>
+      <c r="E21" s="1">
+        <v>42735</v>
+      </c>
+      <c r="N21" s="4">
+        <v>2014</v>
+      </c>
+      <c r="O21" s="4">
+        <v>2015</v>
+      </c>
+      <c r="Q21" s="4">
+        <v>2017</v>
+      </c>
+      <c r="R21" s="4">
+        <v>2018</v>
+      </c>
+      <c r="S21" s="4">
+        <v>2019</v>
+      </c>
+      <c r="T21" s="4">
+        <v>2020</v>
+      </c>
+      <c r="U21" s="4">
+        <v>2021</v>
+      </c>
+      <c r="V21" s="4">
+        <v>2022</v>
+      </c>
+      <c r="W21" s="4">
+        <v>2023</v>
+      </c>
+      <c r="X21" s="4">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22">
+        <v>3293000000</v>
+      </c>
+      <c r="C22">
+        <v>4180000000</v>
+      </c>
+      <c r="D22">
+        <v>5475000000</v>
+      </c>
+      <c r="E22">
+        <v>16443000000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23">
+        <v>373000000</v>
+      </c>
+      <c r="C23">
+        <v>3785000000</v>
+      </c>
+      <c r="D23">
+        <v>3444000000</v>
+      </c>
+      <c r="E23">
+        <v>6737000000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24">
+        <v>2920000000</v>
+      </c>
+      <c r="C24">
+        <v>395000000</v>
+      </c>
+      <c r="D24">
+        <v>2031000000</v>
+      </c>
+      <c r="E24">
+        <v>9706000000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="1">
+        <v>41274</v>
+      </c>
+      <c r="C26" s="1">
+        <v>41639</v>
+      </c>
+      <c r="D26" s="1">
+        <v>42004</v>
+      </c>
+      <c r="E26" s="1">
+        <v>42369</v>
+      </c>
+      <c r="F26" s="1">
+        <v>42735</v>
+      </c>
+      <c r="G26" s="1">
+        <v>43100</v>
+      </c>
+      <c r="H26" s="1">
+        <v>43465</v>
+      </c>
+      <c r="I26" s="1">
+        <v>43830</v>
+      </c>
+      <c r="J26" s="1">
+        <v>44196</v>
+      </c>
+      <c r="K26" s="1">
+        <v>44561</v>
+      </c>
+      <c r="L26" s="1">
+        <v>44926</v>
+      </c>
+      <c r="M26" s="1">
+        <v>45291</v>
+      </c>
+      <c r="X26" s="4">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27">
+        <v>1612000000</v>
+      </c>
+      <c r="C27">
+        <v>4222000000</v>
+      </c>
+      <c r="D27">
+        <v>5457000000</v>
+      </c>
+      <c r="E27">
+        <v>8599000000</v>
+      </c>
+      <c r="F27">
+        <v>16108000000</v>
+      </c>
+      <c r="G27">
+        <v>24216000000</v>
+      </c>
+      <c r="H27">
+        <v>29274000000</v>
+      </c>
+      <c r="I27">
+        <v>36314000000</v>
+      </c>
+      <c r="J27">
+        <v>38747000000</v>
+      </c>
+      <c r="K27">
+        <v>57683000000</v>
+      </c>
+      <c r="L27">
+        <v>50475000000</v>
+      </c>
+      <c r="M27">
+        <v>71113000000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28">
+        <v>1235000000</v>
+      </c>
+      <c r="C28">
+        <v>1362000000</v>
+      </c>
+      <c r="D28">
+        <v>1831000000</v>
+      </c>
+      <c r="E28">
+        <v>2523000000</v>
+      </c>
+      <c r="F28">
+        <v>4491000000</v>
+      </c>
+      <c r="G28">
+        <v>6733000000</v>
+      </c>
+      <c r="H28">
+        <v>13915000000</v>
+      </c>
+      <c r="I28">
+        <v>15102000000</v>
+      </c>
+      <c r="J28">
+        <v>15115000000</v>
+      </c>
+      <c r="K28">
+        <v>18567000000</v>
+      </c>
+      <c r="L28">
+        <v>31431000000</v>
+      </c>
+      <c r="M28">
+        <v>27266000000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29">
+        <v>377000000</v>
+      </c>
+      <c r="C29">
+        <v>2860000000</v>
+      </c>
+      <c r="D29">
+        <v>3626000000</v>
+      </c>
+      <c r="E29">
+        <v>6076000000</v>
+      </c>
+      <c r="F29">
+        <v>11617000000</v>
+      </c>
+      <c r="G29">
+        <v>17483000000</v>
+      </c>
+      <c r="H29">
+        <v>15359000000</v>
+      </c>
+      <c r="I29">
+        <v>21212000000</v>
+      </c>
+      <c r="J29">
+        <v>23632000000</v>
+      </c>
+      <c r="K29">
+        <v>39116000000</v>
+      </c>
+      <c r="L29">
+        <v>19044000000</v>
+      </c>
+      <c r="M29">
+        <v>43847000000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="1">
+        <v>40908</v>
+      </c>
+      <c r="C31" s="1">
+        <v>41274</v>
+      </c>
+      <c r="D31" s="1">
+        <v>41639</v>
+      </c>
+      <c r="E31" s="1">
+        <v>43465</v>
+      </c>
+      <c r="F31" s="1">
+        <v>43830</v>
+      </c>
+      <c r="G31" s="1">
+        <v>44196</v>
+      </c>
+      <c r="H31" s="1">
+        <v>44561</v>
+      </c>
+      <c r="I31" s="1">
+        <v>44926</v>
+      </c>
+      <c r="J31" s="1">
+        <v>45291</v>
+      </c>
+      <c r="N31" s="4">
+        <v>2014</v>
+      </c>
+      <c r="O31" s="4">
+        <v>2015</v>
+      </c>
+      <c r="P31" s="4">
+        <v>2016</v>
+      </c>
+      <c r="Q31" s="4">
+        <v>2017</v>
+      </c>
+      <c r="X31" s="4">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32">
+        <v>-114364000</v>
+      </c>
+      <c r="C32">
+        <v>-266081000</v>
+      </c>
+      <c r="D32">
+        <v>257994000</v>
+      </c>
+      <c r="E32">
+        <v>2097802000</v>
+      </c>
+      <c r="F32">
+        <v>2405000000</v>
+      </c>
+      <c r="G32">
+        <v>5943000000</v>
+      </c>
+      <c r="H32">
+        <v>11497000000</v>
+      </c>
+      <c r="I32">
+        <v>14724000000</v>
+      </c>
+      <c r="J32">
+        <v>13256000000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33">
+        <v>197896000</v>
+      </c>
+      <c r="C33">
+        <v>239228000</v>
+      </c>
+      <c r="D33">
+        <v>264224000</v>
+      </c>
+      <c r="E33">
+        <v>2100724000</v>
+      </c>
+      <c r="F33">
+        <v>1327000000</v>
+      </c>
+      <c r="G33">
+        <v>3157000000</v>
+      </c>
+      <c r="H33">
+        <v>6482000000</v>
+      </c>
+      <c r="I33">
+        <v>7158000000</v>
+      </c>
+      <c r="J33">
+        <v>8898000000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34">
+        <v>-312260000</v>
+      </c>
+      <c r="C34">
+        <v>-505309000</v>
+      </c>
+      <c r="D34">
+        <v>-6230000</v>
+      </c>
+      <c r="E34">
+        <v>-2922000</v>
+      </c>
+      <c r="F34">
+        <v>1078000000</v>
+      </c>
+      <c r="G34">
+        <v>2786000000</v>
+      </c>
+      <c r="H34">
+        <v>5015000000</v>
+      </c>
+      <c r="I34">
+        <v>7566000000</v>
+      </c>
+      <c r="J34">
+        <v>4358000000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/StockAnalyzer/Documents/FCF.xlsx
+++ b/StockAnalyzer/Documents/FCF.xlsx
@@ -8,14 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\r\Rollover\StockAnalyzer\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B58917EA-469A-417A-89DF-F2FB1FD39298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{283DC65B-63FD-4A89-B06D-43C3777777BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-135" yWindow="-135" windowWidth="29070" windowHeight="15870" activeTab="2" xr2:uid="{86B76565-99B1-4BFD-86A7-84DD5AE41E2F}"/>
+    <workbookView xWindow="-54135" yWindow="8415" windowWidth="25470" windowHeight="15420" activeTab="8" xr2:uid="{86B76565-99B1-4BFD-86A7-84DD5AE41E2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
-    <sheet name="Missing Data" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="12" r:id="rId3"/>
+    <sheet name="Missing Data" sheetId="5" r:id="rId4"/>
+    <sheet name="MD NVDA" sheetId="6" r:id="rId5"/>
+    <sheet name="MD GOOG" sheetId="10" r:id="rId6"/>
+    <sheet name="MD MSFT" sheetId="11" r:id="rId7"/>
+    <sheet name="Add MD" sheetId="9" r:id="rId8"/>
+    <sheet name="Interpolate" sheetId="13" r:id="rId9"/>
+    <sheet name="CAGR" sheetId="14" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="46">
   <si>
     <t>Symbol</t>
   </si>
@@ -102,12 +109,87 @@
   <si>
     <t>Free cash flow</t>
   </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Attribute</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>FreeCashFlow</t>
+  </si>
+  <si>
+    <t>NetCashProvidedByUsedInOperatingActivities</t>
+  </si>
+  <si>
+    <t>PaymentsToAcquirePropertyPlantAndEquipment</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Filed</t>
+  </si>
+  <si>
+    <t>Attrubute</t>
+  </si>
+  <si>
+    <t>EdgarMissingData</t>
+  </si>
+  <si>
+    <t>MSFT</t>
+  </si>
+  <si>
+    <t>Net cash from operations</t>
+  </si>
+  <si>
+    <t>Additions to property and equipment</t>
+  </si>
+  <si>
+    <t>Years</t>
+  </si>
+  <si>
+    <t>Growth</t>
+  </si>
+  <si>
+    <t>CAGR</t>
+  </si>
+  <si>
+    <t>idxFirst</t>
+  </si>
+  <si>
+    <t>idxLast</t>
+  </si>
+  <si>
+    <t>firstData</t>
+  </si>
+  <si>
+    <t>lastData</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>cagr</t>
+  </si>
+  <si>
+    <t>cagr1</t>
+  </si>
+  <si>
+    <t>cagr2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,8 +205,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="3" tint="0.499984740745262"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -143,6 +244,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -153,10 +260,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -167,9 +275,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal_Add Missing Data" xfId="1" xr:uid="{D16517AA-0E14-415C-A3DE-6E3B776B18CB}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -182,6 +296,2655 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="LID4096"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'MD NVDA'!$D$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Value</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'MD NVDA'!$B$14:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'MD NVDA'!$D$14:$D$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>783275000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1089000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1496000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2909000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3143000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4272000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4694000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8132000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3808000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>27021000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DD85-4377-B752-CE940145D2DD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1119695184"/>
+        <c:axId val="1119692784"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1119695184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="LID4096"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1119692784"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1119692784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="LID4096"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1119695184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="LID4096"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="LID4096"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'MD GOOG'!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Free cash flow</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'MD GOOG'!$B$4:$K$4</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>42004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42369</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42735</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43465</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43830</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44196</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44561</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44926</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45291</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'MD GOOG'!$B$7:$K$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>11417000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16109000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25824000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23907000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22832000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30972000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42843000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>67012000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60010000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>69495000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-02F2-4177-B126-1C7A0D2623F2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="406296592"/>
+        <c:axId val="406297072"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="406296592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="LID4096"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="406297072"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="years"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="406297072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="LID4096"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="406296592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="LID4096"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.76136789151356077"/>
+          <c:y val="0.26851851851851855"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="LID4096"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'MD MSFT'!$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Free cash flow</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'MD MSFT'!$B$17:$K$17</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>42185</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42551</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42916</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43281</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43646</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44012</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44377</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44742</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45473</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'MD MSFT'!$B$18:$K$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>35612000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41668000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>47636000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32252000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>38260000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45234000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>56118000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>65149000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>59475000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>74071000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-66F0-4D45-A654-465B67C0345F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="32148192"/>
+        <c:axId val="32146272"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="32148192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="LID4096"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="32146272"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="years"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="32146272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="LID4096"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="32148192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="LID4096"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -237,6 +3000,222 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>158002</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1171014</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>43702</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{996A0ACC-90D4-5A05-362B-CEB774F87A96}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>895349</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>176211</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>409574</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3D71CD6-16B8-72B6-364B-50EF7F9B31D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A93F5D57-0880-8701-049E-28CFAADA2B88}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>259557</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38475EC3-734D-EB0D-5135-2B1D466A9BD5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="1"/>
+          <a:ext cx="9670256" cy="5905500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>200839</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>180107</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E327A18-42D0-46E6-217E-AC7FE1AA7293}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9611539" y="0"/>
+          <a:ext cx="6399118" cy="2686050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1827,12 +4806,206 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A386F8A-B404-4301-A885-C6A5DD5C5A53}">
+  <dimension ref="A1:P8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" customWidth="1"/>
+    <col min="10" max="10" width="21.5703125" customWidth="1"/>
+    <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>11</v>
+      </c>
+      <c r="C2">
+        <v>59.37</v>
+      </c>
+      <c r="D2">
+        <v>0.45</v>
+      </c>
+      <c r="I2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>41</v>
+      </c>
+      <c r="L2">
+        <v>501263000</v>
+      </c>
+      <c r="M2">
+        <v>29760000000</v>
+      </c>
+      <c r="N2">
+        <v>11</v>
+      </c>
+      <c r="O2">
+        <v>59.37</v>
+      </c>
+      <c r="P2">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>4.5140000000000002</v>
+      </c>
+      <c r="D3">
+        <v>0.182</v>
+      </c>
+      <c r="I3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>40</v>
+      </c>
+      <c r="L3">
+        <v>439990000</v>
+      </c>
+      <c r="M3">
+        <v>29760000000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>4.0119999999999996</v>
+      </c>
+      <c r="D4">
+        <v>0.13500000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>2.4630000000000001</v>
+      </c>
+      <c r="D5">
+        <v>8.5000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>258.93599999999998</v>
+      </c>
+      <c r="D6">
+        <v>0.65700000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>50.351999999999997</v>
+      </c>
+      <c r="D7">
+        <v>0.42799999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>15232113501</v>
+      </c>
+      <c r="D8">
+        <v>7.4279999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5BE65AC-56CF-44EB-B38A-6A64E42765EF}">
   <dimension ref="A1:S53"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3025,11 +6198,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{938B8333-E4D9-4BC6-B3AB-30159B3B4DEE}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S24" sqref="S24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5578540F-370E-4D3A-9855-F911478645D9}">
   <dimension ref="A1:X34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O36" sqref="O36"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3931,4 +7118,2453 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51093F1B-DCAD-4479-88B4-D8FAC9E08B59}">
+  <dimension ref="A1:F23"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2">
+        <v>2014</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="11">
+        <v>905656000</v>
+      </c>
+      <c r="E2" s="11">
+        <v>-122381000</v>
+      </c>
+      <c r="F2" s="10">
+        <f>SUM(D2:E2)</f>
+        <v>783275000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3">
+        <v>2015</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="11">
+        <v>1175000000</v>
+      </c>
+      <c r="E3" s="11">
+        <v>-86000000</v>
+      </c>
+      <c r="F3" s="10">
+        <f t="shared" ref="F3:F11" si="0">SUM(D3:E3)</f>
+        <v>1089000000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4">
+        <v>2016</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="11">
+        <v>1672000000</v>
+      </c>
+      <c r="E4" s="11">
+        <v>-176000000</v>
+      </c>
+      <c r="F4" s="10">
+        <f t="shared" si="0"/>
+        <v>1496000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5">
+        <v>2017</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="11">
+        <v>3502000000</v>
+      </c>
+      <c r="E5" s="11">
+        <v>-593000000</v>
+      </c>
+      <c r="F5" s="10">
+        <f t="shared" si="0"/>
+        <v>2909000000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>2018</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="11">
+        <v>3743000000</v>
+      </c>
+      <c r="E6" s="11">
+        <v>-600000000</v>
+      </c>
+      <c r="F6" s="10">
+        <f t="shared" si="0"/>
+        <v>3143000000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7">
+        <v>2019</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="11">
+        <v>4761000000</v>
+      </c>
+      <c r="E7" s="11">
+        <v>-489000000</v>
+      </c>
+      <c r="F7" s="10">
+        <f t="shared" si="0"/>
+        <v>4272000000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>2020</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="11">
+        <v>5822000000</v>
+      </c>
+      <c r="E8" s="11">
+        <v>-1128000000</v>
+      </c>
+      <c r="F8" s="10">
+        <f t="shared" si="0"/>
+        <v>4694000000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>2021</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="11">
+        <v>9108000000</v>
+      </c>
+      <c r="E9" s="11">
+        <v>-976000000</v>
+      </c>
+      <c r="F9" s="10">
+        <f t="shared" si="0"/>
+        <v>8132000000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>2022</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="11">
+        <v>5641000000</v>
+      </c>
+      <c r="E10" s="11">
+        <v>-1833000000</v>
+      </c>
+      <c r="F10" s="10">
+        <f t="shared" si="0"/>
+        <v>3808000000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>2023</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="11">
+        <v>28090000000</v>
+      </c>
+      <c r="E11" s="11">
+        <v>-1069000000</v>
+      </c>
+      <c r="F11" s="10">
+        <f t="shared" si="0"/>
+        <v>27021000000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>2014</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14">
+        <v>783275000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>2015</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15">
+        <v>1089000000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>2016</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16">
+        <v>1496000000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>2017</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17">
+        <v>2909000000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>2018</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18">
+        <v>3143000000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19">
+        <v>2019</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19">
+        <v>4272000000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20">
+        <v>2020</v>
+      </c>
+      <c r="C20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20">
+        <v>4694000000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21">
+        <v>2021</v>
+      </c>
+      <c r="C21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21">
+        <v>8132000000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22">
+        <v>2022</v>
+      </c>
+      <c r="C22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22">
+        <v>3808000000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23">
+        <v>2023</v>
+      </c>
+      <c r="C23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23">
+        <v>27021000000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27738A37-6200-40FB-AA07-0B5C95A35215}">
+  <dimension ref="A1:K31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1">
+        <v>42004</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="11">
+        <v>22376000000</v>
+      </c>
+      <c r="E2" s="11">
+        <v>-10959000000</v>
+      </c>
+      <c r="F2" s="13">
+        <f>SUM(D2:E2)</f>
+        <v>11417000000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>42004</v>
+      </c>
+      <c r="C4" s="1">
+        <v>42369</v>
+      </c>
+      <c r="D4" s="1">
+        <v>42735</v>
+      </c>
+      <c r="E4" s="1">
+        <v>43100</v>
+      </c>
+      <c r="F4" s="1">
+        <v>43465</v>
+      </c>
+      <c r="G4" s="1">
+        <v>43830</v>
+      </c>
+      <c r="H4" s="1">
+        <v>44196</v>
+      </c>
+      <c r="I4" s="1">
+        <v>44561</v>
+      </c>
+      <c r="J4" s="1">
+        <v>44926</v>
+      </c>
+      <c r="K4" s="1">
+        <v>45291</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5">
+        <v>26024000000</v>
+      </c>
+      <c r="D5">
+        <v>36036000000</v>
+      </c>
+      <c r="E5">
+        <v>37091000000</v>
+      </c>
+      <c r="F5">
+        <v>47971000000</v>
+      </c>
+      <c r="G5">
+        <v>54520000000</v>
+      </c>
+      <c r="H5">
+        <v>65124000000</v>
+      </c>
+      <c r="I5">
+        <v>91652000000</v>
+      </c>
+      <c r="J5">
+        <v>91495000000</v>
+      </c>
+      <c r="K5">
+        <v>101746000000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6">
+        <v>9915000000</v>
+      </c>
+      <c r="D6">
+        <v>10212000000</v>
+      </c>
+      <c r="E6">
+        <v>13184000000</v>
+      </c>
+      <c r="F6">
+        <v>25139000000</v>
+      </c>
+      <c r="G6">
+        <v>23548000000</v>
+      </c>
+      <c r="H6">
+        <v>22281000000</v>
+      </c>
+      <c r="I6">
+        <v>24640000000</v>
+      </c>
+      <c r="J6">
+        <v>31485000000</v>
+      </c>
+      <c r="K6">
+        <v>32251000000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7">
+        <v>11417000000</v>
+      </c>
+      <c r="C7">
+        <v>16109000000</v>
+      </c>
+      <c r="D7">
+        <v>25824000000</v>
+      </c>
+      <c r="E7">
+        <v>23907000000</v>
+      </c>
+      <c r="F7">
+        <v>22832000000</v>
+      </c>
+      <c r="G7">
+        <v>30972000000</v>
+      </c>
+      <c r="H7">
+        <v>42843000000</v>
+      </c>
+      <c r="I7">
+        <v>67012000000</v>
+      </c>
+      <c r="J7">
+        <v>60010000000</v>
+      </c>
+      <c r="K7">
+        <v>69495000000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" t="s">
+        <v>29</v>
+      </c>
+      <c r="F30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>23</v>
+      </c>
+      <c r="B31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="1">
+        <v>42004</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31" t="s">
+        <v>24</v>
+      </c>
+      <c r="F31" s="11">
+        <v>11417000000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E785CBCE-7C66-4320-9C5E-51618C2C3242}">
+  <dimension ref="A1:O23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="15" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="1">
+        <v>42916</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="11">
+        <v>39507000000</v>
+      </c>
+      <c r="E2" s="11">
+        <v>8129000000</v>
+      </c>
+      <c r="F2" s="14">
+        <f>SUM(D2:E2)</f>
+        <v>47636000000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="1">
+        <v>42551</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="11">
+        <v>33325000000</v>
+      </c>
+      <c r="E3" s="11">
+        <v>8343000000</v>
+      </c>
+      <c r="F3" s="14">
+        <f>SUM(D3:E3)</f>
+        <v>41668000000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="1">
+        <v>42185</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="11">
+        <v>29668000000</v>
+      </c>
+      <c r="E4" s="11">
+        <v>5944000000</v>
+      </c>
+      <c r="F4" s="14">
+        <f>SUM(D4:E4)</f>
+        <v>35612000000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>2014</v>
+      </c>
+      <c r="B7" s="4">
+        <v>2015</v>
+      </c>
+      <c r="C7" s="4">
+        <v>2016</v>
+      </c>
+      <c r="D7" s="4">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="1">
+        <v>42916</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10">
+        <v>39507000000</v>
+      </c>
+      <c r="E10">
+        <v>8129000000</v>
+      </c>
+      <c r="F10">
+        <v>47636000000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="1">
+        <v>42551</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11">
+        <v>33325000000</v>
+      </c>
+      <c r="E11">
+        <v>8343000000</v>
+      </c>
+      <c r="F11">
+        <v>41668000000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="1">
+        <v>42185</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12">
+        <v>29668000000</v>
+      </c>
+      <c r="E12">
+        <v>5944000000</v>
+      </c>
+      <c r="F12">
+        <v>35612000000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="1">
+        <v>40359</v>
+      </c>
+      <c r="C14" s="1">
+        <v>40724</v>
+      </c>
+      <c r="D14" s="1">
+        <v>41090</v>
+      </c>
+      <c r="E14" s="1">
+        <v>41455</v>
+      </c>
+      <c r="F14" s="1">
+        <v>42185</v>
+      </c>
+      <c r="G14" s="1">
+        <v>42551</v>
+      </c>
+      <c r="H14" s="1">
+        <v>42916</v>
+      </c>
+      <c r="I14" s="1">
+        <v>43281</v>
+      </c>
+      <c r="J14" s="1">
+        <v>43646</v>
+      </c>
+      <c r="K14" s="1">
+        <v>44012</v>
+      </c>
+      <c r="L14" s="1">
+        <v>44377</v>
+      </c>
+      <c r="M14" s="1">
+        <v>44742</v>
+      </c>
+      <c r="N14" s="1">
+        <v>45107</v>
+      </c>
+      <c r="O14" s="1">
+        <v>45473</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>22096000000</v>
+      </c>
+      <c r="C15">
+        <v>24639000000</v>
+      </c>
+      <c r="D15">
+        <v>29321000000</v>
+      </c>
+      <c r="E15">
+        <v>24576000000</v>
+      </c>
+      <c r="F15">
+        <v>35612000000</v>
+      </c>
+      <c r="G15">
+        <v>41668000000</v>
+      </c>
+      <c r="H15">
+        <v>47636000000</v>
+      </c>
+      <c r="I15">
+        <v>32252000000</v>
+      </c>
+      <c r="J15">
+        <v>38260000000</v>
+      </c>
+      <c r="K15">
+        <v>45234000000</v>
+      </c>
+      <c r="L15">
+        <v>56118000000</v>
+      </c>
+      <c r="M15">
+        <v>65149000000</v>
+      </c>
+      <c r="N15">
+        <v>59475000000</v>
+      </c>
+      <c r="O15">
+        <v>74071000000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="1">
+        <v>42185</v>
+      </c>
+      <c r="C17" s="1">
+        <v>42551</v>
+      </c>
+      <c r="D17" s="1">
+        <v>42916</v>
+      </c>
+      <c r="E17" s="1">
+        <v>43281</v>
+      </c>
+      <c r="F17" s="1">
+        <v>43646</v>
+      </c>
+      <c r="G17" s="1">
+        <v>44012</v>
+      </c>
+      <c r="H17" s="1">
+        <v>44377</v>
+      </c>
+      <c r="I17" s="1">
+        <v>44742</v>
+      </c>
+      <c r="J17" s="1">
+        <v>45107</v>
+      </c>
+      <c r="K17" s="1">
+        <v>45473</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>35612000000</v>
+      </c>
+      <c r="C18">
+        <v>41668000000</v>
+      </c>
+      <c r="D18">
+        <v>47636000000</v>
+      </c>
+      <c r="E18">
+        <v>32252000000</v>
+      </c>
+      <c r="F18">
+        <v>38260000000</v>
+      </c>
+      <c r="G18">
+        <v>45234000000</v>
+      </c>
+      <c r="H18">
+        <v>56118000000</v>
+      </c>
+      <c r="I18">
+        <v>65149000000</v>
+      </c>
+      <c r="J18">
+        <v>59475000000</v>
+      </c>
+      <c r="K18">
+        <v>74071000000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="1">
+        <v>42916</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>47636000000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="1">
+        <v>42551</v>
+      </c>
+      <c r="D22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22">
+        <v>41668000000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>26</v>
+      </c>
+      <c r="B23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="1">
+        <v>42185</v>
+      </c>
+      <c r="D23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23">
+        <v>35612000000</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F4">
+    <sortCondition descending="1" ref="B3:B4"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27D9B3DC-2073-47A2-B300-D58D23870D5A}">
+  <dimension ref="B1:O22"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" customWidth="1"/>
+    <col min="11" max="12" width="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B1" s="1"/>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O13" s="12"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O14" s="12"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O15" s="12"/>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O16" s="12"/>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O17" s="12"/>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O18" s="12"/>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="O19" s="12"/>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O20" s="12"/>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B939F17-5E45-4814-9795-B5927B9C1145}">
+  <dimension ref="A1:BH8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="60" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>40082</v>
+      </c>
+      <c r="C1" s="1">
+        <v>40178</v>
+      </c>
+      <c r="D1" s="1">
+        <v>40359</v>
+      </c>
+      <c r="E1" s="1">
+        <v>40446</v>
+      </c>
+      <c r="F1" s="1">
+        <v>40543</v>
+      </c>
+      <c r="G1" s="1">
+        <v>40573</v>
+      </c>
+      <c r="H1" s="1">
+        <v>40724</v>
+      </c>
+      <c r="I1" s="1">
+        <v>40810</v>
+      </c>
+      <c r="J1" s="1">
+        <v>40908</v>
+      </c>
+      <c r="K1" s="1">
+        <v>40937</v>
+      </c>
+      <c r="L1" s="1">
+        <v>41090</v>
+      </c>
+      <c r="M1" s="1">
+        <v>41181</v>
+      </c>
+      <c r="N1" s="1">
+        <v>41274</v>
+      </c>
+      <c r="O1" s="1">
+        <v>41301</v>
+      </c>
+      <c r="P1" s="1">
+        <v>41455</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>41545</v>
+      </c>
+      <c r="R1" s="1">
+        <v>41639</v>
+      </c>
+      <c r="S1" s="1">
+        <v>41665</v>
+      </c>
+      <c r="T1" s="1">
+        <v>41820</v>
+      </c>
+      <c r="U1" s="1">
+        <v>41909</v>
+      </c>
+      <c r="V1" s="1">
+        <v>42004</v>
+      </c>
+      <c r="W1" s="1">
+        <v>42029</v>
+      </c>
+      <c r="X1" s="1">
+        <v>42185</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>42273</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>42369</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>42400</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>42551</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>42637</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>42735</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>42764</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>42916</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>43008</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>43100</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>43128</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>43281</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>43372</v>
+      </c>
+      <c r="AL1" s="1">
+        <v>43465</v>
+      </c>
+      <c r="AM1" s="1">
+        <v>43492</v>
+      </c>
+      <c r="AN1" s="1">
+        <v>43646</v>
+      </c>
+      <c r="AO1" s="1">
+        <v>43736</v>
+      </c>
+      <c r="AP1" s="1">
+        <v>43830</v>
+      </c>
+      <c r="AQ1" s="1">
+        <v>43856</v>
+      </c>
+      <c r="AR1" s="1">
+        <v>44012</v>
+      </c>
+      <c r="AS1" s="1">
+        <v>44100</v>
+      </c>
+      <c r="AT1" s="1">
+        <v>44196</v>
+      </c>
+      <c r="AU1" s="1">
+        <v>44227</v>
+      </c>
+      <c r="AV1" s="1">
+        <v>44377</v>
+      </c>
+      <c r="AW1" s="1">
+        <v>44464</v>
+      </c>
+      <c r="AX1" s="1">
+        <v>44561</v>
+      </c>
+      <c r="AY1" s="1">
+        <v>44591</v>
+      </c>
+      <c r="AZ1" s="1">
+        <v>44742</v>
+      </c>
+      <c r="BA1" s="1">
+        <v>44828</v>
+      </c>
+      <c r="BB1" s="1">
+        <v>44926</v>
+      </c>
+      <c r="BC1" s="1">
+        <v>44955</v>
+      </c>
+      <c r="BD1" s="1">
+        <v>45107</v>
+      </c>
+      <c r="BE1" s="1">
+        <v>45199</v>
+      </c>
+      <c r="BF1" s="1">
+        <v>45291</v>
+      </c>
+      <c r="BG1" s="1">
+        <v>45319</v>
+      </c>
+      <c r="BH1" s="1">
+        <v>45473</v>
+      </c>
+    </row>
+    <row r="2" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>253146000</v>
+      </c>
+      <c r="H2">
+        <v>417118000</v>
+      </c>
+      <c r="I2">
+        <v>417118000</v>
+      </c>
+      <c r="J2">
+        <v>417118000</v>
+      </c>
+      <c r="K2">
+        <v>581090000</v>
+      </c>
+      <c r="L2">
+        <v>571813000</v>
+      </c>
+      <c r="M2">
+        <v>571813000</v>
+      </c>
+      <c r="N2">
+        <v>571813000</v>
+      </c>
+      <c r="O2">
+        <v>562536000</v>
+      </c>
+      <c r="P2">
+        <v>501263000</v>
+      </c>
+      <c r="Q2">
+        <v>501263000</v>
+      </c>
+      <c r="R2">
+        <v>501263000</v>
+      </c>
+      <c r="S2">
+        <v>439990000</v>
+      </c>
+      <c r="T2">
+        <v>535288500</v>
+      </c>
+      <c r="U2">
+        <v>535288500</v>
+      </c>
+      <c r="V2">
+        <v>535288500</v>
+      </c>
+      <c r="W2">
+        <v>630587000</v>
+      </c>
+      <c r="X2">
+        <v>622293500</v>
+      </c>
+      <c r="Y2">
+        <v>622293500</v>
+      </c>
+      <c r="Z2">
+        <v>622293500</v>
+      </c>
+      <c r="AA2">
+        <v>614000000</v>
+      </c>
+      <c r="AB2">
+        <v>1140000000</v>
+      </c>
+      <c r="AC2">
+        <v>1140000000</v>
+      </c>
+      <c r="AD2">
+        <v>1140000000</v>
+      </c>
+      <c r="AE2">
+        <v>1666000000</v>
+      </c>
+      <c r="AF2">
+        <v>2356500000</v>
+      </c>
+      <c r="AG2">
+        <v>2356500000</v>
+      </c>
+      <c r="AH2">
+        <v>2356500000</v>
+      </c>
+      <c r="AI2">
+        <v>3047000000</v>
+      </c>
+      <c r="AJ2">
+        <v>3594000000</v>
+      </c>
+      <c r="AK2">
+        <v>3594000000</v>
+      </c>
+      <c r="AL2">
+        <v>3594000000</v>
+      </c>
+      <c r="AM2">
+        <v>4141000000</v>
+      </c>
+      <c r="AN2">
+        <v>3468500000</v>
+      </c>
+      <c r="AO2">
+        <v>3468500000</v>
+      </c>
+      <c r="AP2">
+        <v>3468500000</v>
+      </c>
+      <c r="AQ2">
+        <v>2796000000</v>
+      </c>
+      <c r="AR2">
+        <v>3564000000</v>
+      </c>
+      <c r="AS2">
+        <v>3564000000</v>
+      </c>
+      <c r="AT2">
+        <v>3564000000</v>
+      </c>
+      <c r="AU2">
+        <v>4332000000</v>
+      </c>
+      <c r="AV2">
+        <v>7042000000</v>
+      </c>
+      <c r="AW2">
+        <v>7042000000</v>
+      </c>
+      <c r="AX2">
+        <v>7042000000</v>
+      </c>
+      <c r="AY2">
+        <v>9752000000</v>
+      </c>
+      <c r="AZ2">
+        <v>7060000000</v>
+      </c>
+      <c r="BA2">
+        <v>7060000000</v>
+      </c>
+      <c r="BB2">
+        <v>7060000000</v>
+      </c>
+      <c r="BC2">
+        <v>4368000000</v>
+      </c>
+      <c r="BD2">
+        <v>17064000000</v>
+      </c>
+      <c r="BE2">
+        <v>17064000000</v>
+      </c>
+      <c r="BF2">
+        <v>17064000000</v>
+      </c>
+      <c r="BG2">
+        <v>29760000000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z3">
+        <v>16348000000</v>
+      </c>
+      <c r="AA3">
+        <v>17913000000</v>
+      </c>
+      <c r="AB3">
+        <v>17913000000</v>
+      </c>
+      <c r="AC3">
+        <v>17913000000</v>
+      </c>
+      <c r="AD3">
+        <v>19478000000</v>
+      </c>
+      <c r="AE3">
+        <v>16070000000</v>
+      </c>
+      <c r="AF3">
+        <v>16070000000</v>
+      </c>
+      <c r="AG3">
+        <v>16070000000</v>
+      </c>
+      <c r="AH3">
+        <v>12662000000</v>
+      </c>
+      <c r="AI3">
+        <v>21699000000</v>
+      </c>
+      <c r="AJ3">
+        <v>21699000000</v>
+      </c>
+      <c r="AK3">
+        <v>21699000000</v>
+      </c>
+      <c r="AL3">
+        <v>30736000000</v>
+      </c>
+      <c r="AM3">
+        <v>32539500000</v>
+      </c>
+      <c r="AN3">
+        <v>32539500000</v>
+      </c>
+      <c r="AO3">
+        <v>32539500000</v>
+      </c>
+      <c r="AP3">
+        <v>34343000000</v>
+      </c>
+      <c r="AQ3">
+        <v>37306000000</v>
+      </c>
+      <c r="AR3">
+        <v>37306000000</v>
+      </c>
+      <c r="AS3">
+        <v>37306000000</v>
+      </c>
+      <c r="AT3">
+        <v>40269000000</v>
+      </c>
+      <c r="AU3">
+        <v>58151000000</v>
+      </c>
+      <c r="AV3">
+        <v>58151000000</v>
+      </c>
+      <c r="AW3">
+        <v>58151000000</v>
+      </c>
+      <c r="AX3">
+        <v>76033000000</v>
+      </c>
+      <c r="AY3">
+        <v>68002500000</v>
+      </c>
+      <c r="AZ3">
+        <v>68002500000</v>
+      </c>
+      <c r="BA3">
+        <v>68002500000</v>
+      </c>
+      <c r="BB3">
+        <v>59972000000</v>
+      </c>
+      <c r="BC3">
+        <v>66883500000</v>
+      </c>
+      <c r="BD3">
+        <v>66883500000</v>
+      </c>
+      <c r="BE3">
+        <v>66883500000</v>
+      </c>
+      <c r="BF3">
+        <v>73795000000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>18760000000</v>
+      </c>
+      <c r="E4">
+        <v>20955000000</v>
+      </c>
+      <c r="F4">
+        <v>20955000000</v>
+      </c>
+      <c r="G4">
+        <v>20955000000</v>
+      </c>
+      <c r="H4">
+        <v>23150000000</v>
+      </c>
+      <c r="I4">
+        <v>20064000000</v>
+      </c>
+      <c r="J4">
+        <v>20064000000</v>
+      </c>
+      <c r="K4">
+        <v>20064000000</v>
+      </c>
+      <c r="L4">
+        <v>16978000000</v>
+      </c>
+      <c r="M4">
+        <v>19420500000</v>
+      </c>
+      <c r="N4">
+        <v>19420500000</v>
+      </c>
+      <c r="O4">
+        <v>19420500000</v>
+      </c>
+      <c r="P4">
+        <v>21863000000</v>
+      </c>
+      <c r="Q4">
+        <v>21968500000</v>
+      </c>
+      <c r="R4">
+        <v>21968500000</v>
+      </c>
+      <c r="S4">
+        <v>21968500000</v>
+      </c>
+      <c r="T4">
+        <v>22074000000</v>
+      </c>
+      <c r="U4">
+        <v>17133500000</v>
+      </c>
+      <c r="V4">
+        <v>17133500000</v>
+      </c>
+      <c r="W4">
+        <v>17133500000</v>
+      </c>
+      <c r="X4">
+        <v>12193000000</v>
+      </c>
+      <c r="Y4">
+        <v>14495500000</v>
+      </c>
+      <c r="Z4">
+        <v>14495500000</v>
+      </c>
+      <c r="AA4">
+        <v>14495500000</v>
+      </c>
+      <c r="AB4">
+        <v>16798000000</v>
+      </c>
+      <c r="AC4">
+        <v>19001000000</v>
+      </c>
+      <c r="AD4">
+        <v>19001000000</v>
+      </c>
+      <c r="AE4">
+        <v>19001000000</v>
+      </c>
+      <c r="AF4">
+        <v>21204000000</v>
+      </c>
+      <c r="AG4">
+        <v>18887500000</v>
+      </c>
+      <c r="AH4">
+        <v>18887500000</v>
+      </c>
+      <c r="AI4">
+        <v>18887500000</v>
+      </c>
+      <c r="AJ4">
+        <v>16571000000</v>
+      </c>
+      <c r="AK4">
+        <v>27905500000</v>
+      </c>
+      <c r="AL4">
+        <v>27905500000</v>
+      </c>
+      <c r="AM4">
+        <v>27905500000</v>
+      </c>
+      <c r="AN4">
+        <v>39240000000</v>
+      </c>
+      <c r="AO4">
+        <v>41760500000</v>
+      </c>
+      <c r="AP4">
+        <v>41760500000</v>
+      </c>
+      <c r="AQ4">
+        <v>41760500000</v>
+      </c>
+      <c r="AR4">
+        <v>44281000000</v>
+      </c>
+      <c r="AS4">
+        <v>52776000000</v>
+      </c>
+      <c r="AT4">
+        <v>52776000000</v>
+      </c>
+      <c r="AU4">
+        <v>52776000000</v>
+      </c>
+      <c r="AV4">
+        <v>61271000000</v>
+      </c>
+      <c r="AW4">
+        <v>67004500000</v>
+      </c>
+      <c r="AX4">
+        <v>67004500000</v>
+      </c>
+      <c r="AY4">
+        <v>67004500000</v>
+      </c>
+      <c r="AZ4">
+        <v>72738000000</v>
+      </c>
+      <c r="BA4">
+        <v>72549500000</v>
+      </c>
+      <c r="BB4">
+        <v>72549500000</v>
+      </c>
+      <c r="BC4">
+        <v>72549500000</v>
+      </c>
+      <c r="BD4">
+        <v>72361000000</v>
+      </c>
+      <c r="BE4">
+        <v>80248500000</v>
+      </c>
+      <c r="BF4">
+        <v>80248500000</v>
+      </c>
+      <c r="BG4">
+        <v>80248500000</v>
+      </c>
+      <c r="BH4">
+        <v>88136000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>5704000000</v>
+      </c>
+      <c r="C5">
+        <v>9858500000</v>
+      </c>
+      <c r="D5">
+        <v>9858500000</v>
+      </c>
+      <c r="E5">
+        <v>14013000000</v>
+      </c>
+      <c r="F5">
+        <v>19967500000</v>
+      </c>
+      <c r="G5">
+        <v>19967500000</v>
+      </c>
+      <c r="H5">
+        <v>19967500000</v>
+      </c>
+      <c r="I5">
+        <v>25922000000</v>
+      </c>
+      <c r="J5">
+        <v>33827500000</v>
+      </c>
+      <c r="K5">
+        <v>33827500000</v>
+      </c>
+      <c r="L5">
+        <v>33827500000</v>
+      </c>
+      <c r="M5">
+        <v>41733000000</v>
+      </c>
+      <c r="N5">
+        <v>39385000000</v>
+      </c>
+      <c r="O5">
+        <v>39385000000</v>
+      </c>
+      <c r="P5">
+        <v>39385000000</v>
+      </c>
+      <c r="Q5">
+        <v>37037000000</v>
+      </c>
+      <c r="R5">
+        <v>38273500000</v>
+      </c>
+      <c r="S5">
+        <v>38273500000</v>
+      </c>
+      <c r="T5">
+        <v>38273500000</v>
+      </c>
+      <c r="U5">
+        <v>39510000000</v>
+      </c>
+      <c r="V5">
+        <v>46452000000</v>
+      </c>
+      <c r="W5">
+        <v>46452000000</v>
+      </c>
+      <c r="X5">
+        <v>46452000000</v>
+      </c>
+      <c r="Y5">
+        <v>53394000000</v>
+      </c>
+      <c r="Z5">
+        <v>49540500000</v>
+      </c>
+      <c r="AA5">
+        <v>49540500000</v>
+      </c>
+      <c r="AB5">
+        <v>49540500000</v>
+      </c>
+      <c r="AC5">
+        <v>45687000000</v>
+      </c>
+      <c r="AD5">
+        <v>47019000000</v>
+      </c>
+      <c r="AE5">
+        <v>47019000000</v>
+      </c>
+      <c r="AF5">
+        <v>47019000000</v>
+      </c>
+      <c r="AG5">
+        <v>48351000000</v>
+      </c>
+      <c r="AH5">
+        <v>53941000000</v>
+      </c>
+      <c r="AI5">
+        <v>53941000000</v>
+      </c>
+      <c r="AJ5">
+        <v>53941000000</v>
+      </c>
+      <c r="AK5">
+        <v>59531000000</v>
+      </c>
+      <c r="AL5">
+        <v>57393500000</v>
+      </c>
+      <c r="AM5">
+        <v>57393500000</v>
+      </c>
+      <c r="AN5">
+        <v>57393500000</v>
+      </c>
+      <c r="AO5">
+        <v>55256000000</v>
+      </c>
+      <c r="AP5">
+        <v>56333500000</v>
+      </c>
+      <c r="AQ5">
+        <v>56333500000</v>
+      </c>
+      <c r="AR5">
+        <v>56333500000</v>
+      </c>
+      <c r="AS5">
+        <v>57411000000</v>
+      </c>
+      <c r="AT5">
+        <v>76045500000</v>
+      </c>
+      <c r="AU5">
+        <v>76045500000</v>
+      </c>
+      <c r="AV5">
+        <v>76045500000</v>
+      </c>
+      <c r="AW5">
+        <v>94680000000</v>
+      </c>
+      <c r="AX5">
+        <v>97241500000</v>
+      </c>
+      <c r="AY5">
+        <v>97241500000</v>
+      </c>
+      <c r="AZ5">
+        <v>97241500000</v>
+      </c>
+      <c r="BA5">
+        <v>99803000000</v>
+      </c>
+      <c r="BB5">
+        <v>98399000000</v>
+      </c>
+      <c r="BC5">
+        <v>98399000000</v>
+      </c>
+      <c r="BD5">
+        <v>98399000000</v>
+      </c>
+      <c r="BE5">
+        <v>96995000000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>902000000</v>
+      </c>
+      <c r="D6">
+        <v>1027000000</v>
+      </c>
+      <c r="E6">
+        <v>1027000000</v>
+      </c>
+      <c r="F6">
+        <v>1152000000</v>
+      </c>
+      <c r="G6">
+        <v>891500000</v>
+      </c>
+      <c r="H6">
+        <v>891500000</v>
+      </c>
+      <c r="I6">
+        <v>891500000</v>
+      </c>
+      <c r="J6">
+        <v>631000000</v>
+      </c>
+      <c r="K6">
+        <v>296000000</v>
+      </c>
+      <c r="L6">
+        <v>296000000</v>
+      </c>
+      <c r="M6">
+        <v>296000000</v>
+      </c>
+      <c r="N6">
+        <v>-39000000</v>
+      </c>
+      <c r="O6">
+        <v>117500000</v>
+      </c>
+      <c r="P6">
+        <v>117500000</v>
+      </c>
+      <c r="Q6">
+        <v>117500000</v>
+      </c>
+      <c r="R6">
+        <v>274000000</v>
+      </c>
+      <c r="S6">
+        <v>16500000</v>
+      </c>
+      <c r="T6">
+        <v>16500000</v>
+      </c>
+      <c r="U6">
+        <v>16500000</v>
+      </c>
+      <c r="V6">
+        <v>-241000000</v>
+      </c>
+      <c r="W6">
+        <v>177500000</v>
+      </c>
+      <c r="X6">
+        <v>177500000</v>
+      </c>
+      <c r="Y6">
+        <v>177500000</v>
+      </c>
+      <c r="Z6">
+        <v>596000000</v>
+      </c>
+      <c r="AA6">
+        <v>1483500000</v>
+      </c>
+      <c r="AB6">
+        <v>1483500000</v>
+      </c>
+      <c r="AC6">
+        <v>1483500000</v>
+      </c>
+      <c r="AD6">
+        <v>2371000000</v>
+      </c>
+      <c r="AE6">
+        <v>2702000000</v>
+      </c>
+      <c r="AF6">
+        <v>2702000000</v>
+      </c>
+      <c r="AG6">
+        <v>2702000000</v>
+      </c>
+      <c r="AH6">
+        <v>3033000000</v>
+      </c>
+      <c r="AI6">
+        <v>6553000000</v>
+      </c>
+      <c r="AJ6">
+        <v>6553000000</v>
+      </c>
+      <c r="AK6">
+        <v>6553000000</v>
+      </c>
+      <c r="AL6">
+        <v>10073000000</v>
+      </c>
+      <c r="AM6">
+        <v>10830500000</v>
+      </c>
+      <c r="AN6">
+        <v>10830500000</v>
+      </c>
+      <c r="AO6">
+        <v>10830500000</v>
+      </c>
+      <c r="AP6">
+        <v>11588000000</v>
+      </c>
+      <c r="AQ6">
+        <v>16459500000</v>
+      </c>
+      <c r="AR6">
+        <v>16459500000</v>
+      </c>
+      <c r="AS6">
+        <v>16459500000</v>
+      </c>
+      <c r="AT6">
+        <v>21331000000</v>
+      </c>
+      <c r="AU6">
+        <v>27347500000</v>
+      </c>
+      <c r="AV6">
+        <v>27347500000</v>
+      </c>
+      <c r="AW6">
+        <v>27347500000</v>
+      </c>
+      <c r="AX6">
+        <v>33364000000</v>
+      </c>
+      <c r="AY6">
+        <v>15321000000</v>
+      </c>
+      <c r="AZ6">
+        <v>15321000000</v>
+      </c>
+      <c r="BA6">
+        <v>15321000000</v>
+      </c>
+      <c r="BB6">
+        <v>-2722000000</v>
+      </c>
+      <c r="BC6">
+        <v>13851500000</v>
+      </c>
+      <c r="BD6">
+        <v>13851500000</v>
+      </c>
+      <c r="BE6">
+        <v>13851500000</v>
+      </c>
+      <c r="BF6">
+        <v>30425000000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="N7">
+        <v>53000000</v>
+      </c>
+      <c r="O7">
+        <v>776500000</v>
+      </c>
+      <c r="P7">
+        <v>776500000</v>
+      </c>
+      <c r="Q7">
+        <v>776500000</v>
+      </c>
+      <c r="R7">
+        <v>1500000000</v>
+      </c>
+      <c r="S7">
+        <v>2220000000</v>
+      </c>
+      <c r="T7">
+        <v>2220000000</v>
+      </c>
+      <c r="U7">
+        <v>2220000000</v>
+      </c>
+      <c r="V7">
+        <v>2940000000</v>
+      </c>
+      <c r="W7">
+        <v>3314000000</v>
+      </c>
+      <c r="X7">
+        <v>3314000000</v>
+      </c>
+      <c r="Y7">
+        <v>3314000000</v>
+      </c>
+      <c r="Z7">
+        <v>3688000000</v>
+      </c>
+      <c r="AA7">
+        <v>6952500000</v>
+      </c>
+      <c r="AB7">
+        <v>6952500000</v>
+      </c>
+      <c r="AC7">
+        <v>6952500000</v>
+      </c>
+      <c r="AD7">
+        <v>10217000000</v>
+      </c>
+      <c r="AE7">
+        <v>13075500000</v>
+      </c>
+      <c r="AF7">
+        <v>13075500000</v>
+      </c>
+      <c r="AG7">
+        <v>13075500000</v>
+      </c>
+      <c r="AH7">
+        <v>15934000000</v>
+      </c>
+      <c r="AI7">
+        <v>19023000000</v>
+      </c>
+      <c r="AJ7">
+        <v>19023000000</v>
+      </c>
+      <c r="AK7">
+        <v>19023000000</v>
+      </c>
+      <c r="AL7">
+        <v>22112000000</v>
+      </c>
+      <c r="AM7">
+        <v>20298500000</v>
+      </c>
+      <c r="AN7">
+        <v>20298500000</v>
+      </c>
+      <c r="AO7">
+        <v>20298500000</v>
+      </c>
+      <c r="AP7">
+        <v>18485000000</v>
+      </c>
+      <c r="AQ7">
+        <v>23815500000</v>
+      </c>
+      <c r="AR7">
+        <v>23815500000</v>
+      </c>
+      <c r="AS7">
+        <v>23815500000</v>
+      </c>
+      <c r="AT7">
+        <v>29146000000</v>
+      </c>
+      <c r="AU7">
+        <v>34258000000</v>
+      </c>
+      <c r="AV7">
+        <v>34258000000</v>
+      </c>
+      <c r="AW7">
+        <v>34258000000</v>
+      </c>
+      <c r="AX7">
+        <v>39370000000</v>
+      </c>
+      <c r="AY7">
+        <v>31285000000</v>
+      </c>
+      <c r="AZ7">
+        <v>31285000000</v>
+      </c>
+      <c r="BA7">
+        <v>31285000000</v>
+      </c>
+      <c r="BB7">
+        <v>23200000000</v>
+      </c>
+      <c r="BC7">
+        <v>31149000000</v>
+      </c>
+      <c r="BD7">
+        <v>31149000000</v>
+      </c>
+      <c r="BE7">
+        <v>31149000000</v>
+      </c>
+      <c r="BF7">
+        <v>39098000000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8">
+        <v>-254411000</v>
+      </c>
+      <c r="K8">
+        <v>-325312000</v>
+      </c>
+      <c r="L8">
+        <v>-325312000</v>
+      </c>
+      <c r="M8">
+        <v>-325312000</v>
+      </c>
+      <c r="N8">
+        <v>-396213000</v>
+      </c>
+      <c r="O8">
+        <v>-235113500</v>
+      </c>
+      <c r="P8">
+        <v>-235113500</v>
+      </c>
+      <c r="Q8">
+        <v>-235113500</v>
+      </c>
+      <c r="R8">
+        <v>-74014000</v>
+      </c>
+      <c r="S8">
+        <v>-184027000</v>
+      </c>
+      <c r="T8">
+        <v>-184027000</v>
+      </c>
+      <c r="U8">
+        <v>-184027000</v>
+      </c>
+      <c r="V8">
+        <v>-294040000</v>
+      </c>
+      <c r="W8">
+        <v>-591351500</v>
+      </c>
+      <c r="X8">
+        <v>-591351500</v>
+      </c>
+      <c r="Y8">
+        <v>-591351500</v>
+      </c>
+      <c r="Z8">
+        <v>-888663000</v>
+      </c>
+      <c r="AA8">
+        <v>-781788500</v>
+      </c>
+      <c r="AB8">
+        <v>-781788500</v>
+      </c>
+      <c r="AC8">
+        <v>-781788500</v>
+      </c>
+      <c r="AD8">
+        <v>-674914000</v>
+      </c>
+      <c r="AE8">
+        <v>-1318157000</v>
+      </c>
+      <c r="AF8">
+        <v>-1318157000</v>
+      </c>
+      <c r="AG8">
+        <v>-1318157000</v>
+      </c>
+      <c r="AH8">
+        <v>-1961400000</v>
+      </c>
+      <c r="AI8">
+        <v>-1468745500</v>
+      </c>
+      <c r="AJ8">
+        <v>-1468745500</v>
+      </c>
+      <c r="AK8">
+        <v>-1468745500</v>
+      </c>
+      <c r="AL8">
+        <v>-976091000</v>
+      </c>
+      <c r="AM8">
+        <v>-919045500</v>
+      </c>
+      <c r="AN8">
+        <v>-919045500</v>
+      </c>
+      <c r="AO8">
+        <v>-919045500</v>
+      </c>
+      <c r="AP8">
+        <v>-862000000</v>
+      </c>
+      <c r="AQ8">
+        <v>-70500000</v>
+      </c>
+      <c r="AR8">
+        <v>-70500000</v>
+      </c>
+      <c r="AS8">
+        <v>-70500000</v>
+      </c>
+      <c r="AT8">
+        <v>721000000</v>
+      </c>
+      <c r="AU8">
+        <v>3120000000</v>
+      </c>
+      <c r="AV8">
+        <v>3120000000</v>
+      </c>
+      <c r="AW8">
+        <v>3120000000</v>
+      </c>
+      <c r="AX8">
+        <v>5519000000</v>
+      </c>
+      <c r="AY8">
+        <v>9037500000</v>
+      </c>
+      <c r="AZ8">
+        <v>9037500000</v>
+      </c>
+      <c r="BA8">
+        <v>9037500000</v>
+      </c>
+      <c r="BB8">
+        <v>12556000000</v>
+      </c>
+      <c r="BC8">
+        <v>13776500000</v>
+      </c>
+      <c r="BD8">
+        <v>13776500000</v>
+      </c>
+      <c r="BE8">
+        <v>13776500000</v>
+      </c>
+      <c r="BF8">
+        <v>14997000000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/StockAnalyzer/Documents/FCF.xlsx
+++ b/StockAnalyzer/Documents/FCF.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\r\Rollover\StockAnalyzer\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{283DC65B-63FD-4A89-B06D-43C3777777BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{962C0618-2737-41F5-9346-0A079DE1A896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-54135" yWindow="8415" windowWidth="25470" windowHeight="15420" activeTab="8" xr2:uid="{86B76565-99B1-4BFD-86A7-84DD5AE41E2F}"/>
+    <workbookView xWindow="-54120" yWindow="8430" windowWidth="25440" windowHeight="15390" activeTab="7" xr2:uid="{86B76565-99B1-4BFD-86A7-84DD5AE41E2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4811,7 +4811,7 @@
   <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8204,7 +8204,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27D9B3DC-2073-47A2-B300-D58D23870D5A}">
   <dimension ref="B1:O22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
@@ -8289,8 +8289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B939F17-5E45-4814-9795-B5927B9C1145}">
   <dimension ref="A1:BH8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/StockAnalyzer/Documents/FCF.xlsx
+++ b/StockAnalyzer/Documents/FCF.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\r\Rollover\StockAnalyzer\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{962C0618-2737-41F5-9346-0A079DE1A896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F65CCE8E-06BE-4C5F-BE25-66F969FF4F2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-54120" yWindow="8430" windowWidth="25440" windowHeight="15390" activeTab="7" xr2:uid="{86B76565-99B1-4BFD-86A7-84DD5AE41E2F}"/>
+    <workbookView xWindow="-54120" yWindow="8430" windowWidth="25440" windowHeight="15390" firstSheet="1" activeTab="8" xr2:uid="{86B76565-99B1-4BFD-86A7-84DD5AE41E2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,8 +21,7 @@
     <sheet name="MD GOOG" sheetId="10" r:id="rId6"/>
     <sheet name="MD MSFT" sheetId="11" r:id="rId7"/>
     <sheet name="Add MD" sheetId="9" r:id="rId8"/>
-    <sheet name="Interpolate" sheetId="13" r:id="rId9"/>
-    <sheet name="CAGR" sheetId="14" r:id="rId10"/>
+    <sheet name="Eliminate Multiple Tables" sheetId="14" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="34">
   <si>
     <t>Symbol</t>
   </si>
@@ -147,42 +146,6 @@
   </si>
   <si>
     <t>Additions to property and equipment</t>
-  </si>
-  <si>
-    <t>Years</t>
-  </si>
-  <si>
-    <t>Growth</t>
-  </si>
-  <si>
-    <t>CAGR</t>
-  </si>
-  <si>
-    <t>idxFirst</t>
-  </si>
-  <si>
-    <t>idxLast</t>
-  </si>
-  <si>
-    <t>firstData</t>
-  </si>
-  <si>
-    <t>lastData</t>
-  </si>
-  <si>
-    <t>years</t>
-  </si>
-  <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>cagr</t>
-  </si>
-  <si>
-    <t>cagr1</t>
-  </si>
-  <si>
-    <t>cagr2</t>
   </si>
 </sst>
 </file>
@@ -3221,6 +3184,99 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>607299</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DBFF10B-31D0-6871-1355-5D3CB4A816D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="0"/>
+          <a:ext cx="9160748" cy="4276725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>164648</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>528965</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>86098</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D8E2D32-4053-AD4E-0306-240063BBC7DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="57150" y="4546148"/>
+          <a:ext cx="11901815" cy="1445450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4806,200 +4862,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A386F8A-B404-4301-A885-C6A5DD5C5A53}">
-  <dimension ref="A1:P8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19.85546875" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" customWidth="1"/>
-    <col min="10" max="10" width="21.5703125" customWidth="1"/>
-    <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="12" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L1" t="s">
-        <v>39</v>
-      </c>
-      <c r="M1" t="s">
-        <v>40</v>
-      </c>
-      <c r="N1" t="s">
-        <v>41</v>
-      </c>
-      <c r="O1" t="s">
-        <v>42</v>
-      </c>
-      <c r="P1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>11</v>
-      </c>
-      <c r="C2">
-        <v>59.37</v>
-      </c>
-      <c r="D2">
-        <v>0.45</v>
-      </c>
-      <c r="I2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>41</v>
-      </c>
-      <c r="L2">
-        <v>501263000</v>
-      </c>
-      <c r="M2">
-        <v>29760000000</v>
-      </c>
-      <c r="N2">
-        <v>11</v>
-      </c>
-      <c r="O2">
-        <v>59.37</v>
-      </c>
-      <c r="P2">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>9</v>
-      </c>
-      <c r="C3">
-        <v>4.5140000000000002</v>
-      </c>
-      <c r="D3">
-        <v>0.182</v>
-      </c>
-      <c r="I3" t="s">
-        <v>45</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>40</v>
-      </c>
-      <c r="L3">
-        <v>439990000</v>
-      </c>
-      <c r="M3">
-        <v>29760000000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>11</v>
-      </c>
-      <c r="C4">
-        <v>4.0119999999999996</v>
-      </c>
-      <c r="D4">
-        <v>0.13500000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>11</v>
-      </c>
-      <c r="C5">
-        <v>2.4630000000000001</v>
-      </c>
-      <c r="D5">
-        <v>8.5000000000000006E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>11</v>
-      </c>
-      <c r="C6">
-        <v>258.93599999999998</v>
-      </c>
-      <c r="D6">
-        <v>0.65700000000000003</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>11</v>
-      </c>
-      <c r="C7">
-        <v>50.351999999999997</v>
-      </c>
-      <c r="D7">
-        <v>0.42799999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>11</v>
-      </c>
-      <c r="C8">
-        <v>15232113501</v>
-      </c>
-      <c r="D8">
-        <v>7.4279999999999999</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5BE65AC-56CF-44EB-B38A-6A64E42765EF}">
   <dimension ref="A1:S53"/>
@@ -8204,7 +8066,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27D9B3DC-2073-47A2-B300-D58D23870D5A}">
   <dimension ref="B1:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
@@ -8286,1285 +8148,23 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B939F17-5E45-4814-9795-B5927B9C1145}">
-  <dimension ref="A1:BH8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A386F8A-B404-4301-A885-C6A5DD5C5A53}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="60" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" customWidth="1"/>
+    <col min="10" max="10" width="21.5703125" customWidth="1"/>
+    <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="12" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData>
-    <row r="1" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1">
-        <v>40082</v>
-      </c>
-      <c r="C1" s="1">
-        <v>40178</v>
-      </c>
-      <c r="D1" s="1">
-        <v>40359</v>
-      </c>
-      <c r="E1" s="1">
-        <v>40446</v>
-      </c>
-      <c r="F1" s="1">
-        <v>40543</v>
-      </c>
-      <c r="G1" s="1">
-        <v>40573</v>
-      </c>
-      <c r="H1" s="1">
-        <v>40724</v>
-      </c>
-      <c r="I1" s="1">
-        <v>40810</v>
-      </c>
-      <c r="J1" s="1">
-        <v>40908</v>
-      </c>
-      <c r="K1" s="1">
-        <v>40937</v>
-      </c>
-      <c r="L1" s="1">
-        <v>41090</v>
-      </c>
-      <c r="M1" s="1">
-        <v>41181</v>
-      </c>
-      <c r="N1" s="1">
-        <v>41274</v>
-      </c>
-      <c r="O1" s="1">
-        <v>41301</v>
-      </c>
-      <c r="P1" s="1">
-        <v>41455</v>
-      </c>
-      <c r="Q1" s="1">
-        <v>41545</v>
-      </c>
-      <c r="R1" s="1">
-        <v>41639</v>
-      </c>
-      <c r="S1" s="1">
-        <v>41665</v>
-      </c>
-      <c r="T1" s="1">
-        <v>41820</v>
-      </c>
-      <c r="U1" s="1">
-        <v>41909</v>
-      </c>
-      <c r="V1" s="1">
-        <v>42004</v>
-      </c>
-      <c r="W1" s="1">
-        <v>42029</v>
-      </c>
-      <c r="X1" s="1">
-        <v>42185</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>42273</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>42369</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>42400</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>42551</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>42637</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>42735</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>42764</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>42916</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>43008</v>
-      </c>
-      <c r="AH1" s="1">
-        <v>43100</v>
-      </c>
-      <c r="AI1" s="1">
-        <v>43128</v>
-      </c>
-      <c r="AJ1" s="1">
-        <v>43281</v>
-      </c>
-      <c r="AK1" s="1">
-        <v>43372</v>
-      </c>
-      <c r="AL1" s="1">
-        <v>43465</v>
-      </c>
-      <c r="AM1" s="1">
-        <v>43492</v>
-      </c>
-      <c r="AN1" s="1">
-        <v>43646</v>
-      </c>
-      <c r="AO1" s="1">
-        <v>43736</v>
-      </c>
-      <c r="AP1" s="1">
-        <v>43830</v>
-      </c>
-      <c r="AQ1" s="1">
-        <v>43856</v>
-      </c>
-      <c r="AR1" s="1">
-        <v>44012</v>
-      </c>
-      <c r="AS1" s="1">
-        <v>44100</v>
-      </c>
-      <c r="AT1" s="1">
-        <v>44196</v>
-      </c>
-      <c r="AU1" s="1">
-        <v>44227</v>
-      </c>
-      <c r="AV1" s="1">
-        <v>44377</v>
-      </c>
-      <c r="AW1" s="1">
-        <v>44464</v>
-      </c>
-      <c r="AX1" s="1">
-        <v>44561</v>
-      </c>
-      <c r="AY1" s="1">
-        <v>44591</v>
-      </c>
-      <c r="AZ1" s="1">
-        <v>44742</v>
-      </c>
-      <c r="BA1" s="1">
-        <v>44828</v>
-      </c>
-      <c r="BB1" s="1">
-        <v>44926</v>
-      </c>
-      <c r="BC1" s="1">
-        <v>44955</v>
-      </c>
-      <c r="BD1" s="1">
-        <v>45107</v>
-      </c>
-      <c r="BE1" s="1">
-        <v>45199</v>
-      </c>
-      <c r="BF1" s="1">
-        <v>45291</v>
-      </c>
-      <c r="BG1" s="1">
-        <v>45319</v>
-      </c>
-      <c r="BH1" s="1">
-        <v>45473</v>
-      </c>
-    </row>
-    <row r="2" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>253146000</v>
-      </c>
-      <c r="H2">
-        <v>417118000</v>
-      </c>
-      <c r="I2">
-        <v>417118000</v>
-      </c>
-      <c r="J2">
-        <v>417118000</v>
-      </c>
-      <c r="K2">
-        <v>581090000</v>
-      </c>
-      <c r="L2">
-        <v>571813000</v>
-      </c>
-      <c r="M2">
-        <v>571813000</v>
-      </c>
-      <c r="N2">
-        <v>571813000</v>
-      </c>
-      <c r="O2">
-        <v>562536000</v>
-      </c>
-      <c r="P2">
-        <v>501263000</v>
-      </c>
-      <c r="Q2">
-        <v>501263000</v>
-      </c>
-      <c r="R2">
-        <v>501263000</v>
-      </c>
-      <c r="S2">
-        <v>439990000</v>
-      </c>
-      <c r="T2">
-        <v>535288500</v>
-      </c>
-      <c r="U2">
-        <v>535288500</v>
-      </c>
-      <c r="V2">
-        <v>535288500</v>
-      </c>
-      <c r="W2">
-        <v>630587000</v>
-      </c>
-      <c r="X2">
-        <v>622293500</v>
-      </c>
-      <c r="Y2">
-        <v>622293500</v>
-      </c>
-      <c r="Z2">
-        <v>622293500</v>
-      </c>
-      <c r="AA2">
-        <v>614000000</v>
-      </c>
-      <c r="AB2">
-        <v>1140000000</v>
-      </c>
-      <c r="AC2">
-        <v>1140000000</v>
-      </c>
-      <c r="AD2">
-        <v>1140000000</v>
-      </c>
-      <c r="AE2">
-        <v>1666000000</v>
-      </c>
-      <c r="AF2">
-        <v>2356500000</v>
-      </c>
-      <c r="AG2">
-        <v>2356500000</v>
-      </c>
-      <c r="AH2">
-        <v>2356500000</v>
-      </c>
-      <c r="AI2">
-        <v>3047000000</v>
-      </c>
-      <c r="AJ2">
-        <v>3594000000</v>
-      </c>
-      <c r="AK2">
-        <v>3594000000</v>
-      </c>
-      <c r="AL2">
-        <v>3594000000</v>
-      </c>
-      <c r="AM2">
-        <v>4141000000</v>
-      </c>
-      <c r="AN2">
-        <v>3468500000</v>
-      </c>
-      <c r="AO2">
-        <v>3468500000</v>
-      </c>
-      <c r="AP2">
-        <v>3468500000</v>
-      </c>
-      <c r="AQ2">
-        <v>2796000000</v>
-      </c>
-      <c r="AR2">
-        <v>3564000000</v>
-      </c>
-      <c r="AS2">
-        <v>3564000000</v>
-      </c>
-      <c r="AT2">
-        <v>3564000000</v>
-      </c>
-      <c r="AU2">
-        <v>4332000000</v>
-      </c>
-      <c r="AV2">
-        <v>7042000000</v>
-      </c>
-      <c r="AW2">
-        <v>7042000000</v>
-      </c>
-      <c r="AX2">
-        <v>7042000000</v>
-      </c>
-      <c r="AY2">
-        <v>9752000000</v>
-      </c>
-      <c r="AZ2">
-        <v>7060000000</v>
-      </c>
-      <c r="BA2">
-        <v>7060000000</v>
-      </c>
-      <c r="BB2">
-        <v>7060000000</v>
-      </c>
-      <c r="BC2">
-        <v>4368000000</v>
-      </c>
-      <c r="BD2">
-        <v>17064000000</v>
-      </c>
-      <c r="BE2">
-        <v>17064000000</v>
-      </c>
-      <c r="BF2">
-        <v>17064000000</v>
-      </c>
-      <c r="BG2">
-        <v>29760000000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z3">
-        <v>16348000000</v>
-      </c>
-      <c r="AA3">
-        <v>17913000000</v>
-      </c>
-      <c r="AB3">
-        <v>17913000000</v>
-      </c>
-      <c r="AC3">
-        <v>17913000000</v>
-      </c>
-      <c r="AD3">
-        <v>19478000000</v>
-      </c>
-      <c r="AE3">
-        <v>16070000000</v>
-      </c>
-      <c r="AF3">
-        <v>16070000000</v>
-      </c>
-      <c r="AG3">
-        <v>16070000000</v>
-      </c>
-      <c r="AH3">
-        <v>12662000000</v>
-      </c>
-      <c r="AI3">
-        <v>21699000000</v>
-      </c>
-      <c r="AJ3">
-        <v>21699000000</v>
-      </c>
-      <c r="AK3">
-        <v>21699000000</v>
-      </c>
-      <c r="AL3">
-        <v>30736000000</v>
-      </c>
-      <c r="AM3">
-        <v>32539500000</v>
-      </c>
-      <c r="AN3">
-        <v>32539500000</v>
-      </c>
-      <c r="AO3">
-        <v>32539500000</v>
-      </c>
-      <c r="AP3">
-        <v>34343000000</v>
-      </c>
-      <c r="AQ3">
-        <v>37306000000</v>
-      </c>
-      <c r="AR3">
-        <v>37306000000</v>
-      </c>
-      <c r="AS3">
-        <v>37306000000</v>
-      </c>
-      <c r="AT3">
-        <v>40269000000</v>
-      </c>
-      <c r="AU3">
-        <v>58151000000</v>
-      </c>
-      <c r="AV3">
-        <v>58151000000</v>
-      </c>
-      <c r="AW3">
-        <v>58151000000</v>
-      </c>
-      <c r="AX3">
-        <v>76033000000</v>
-      </c>
-      <c r="AY3">
-        <v>68002500000</v>
-      </c>
-      <c r="AZ3">
-        <v>68002500000</v>
-      </c>
-      <c r="BA3">
-        <v>68002500000</v>
-      </c>
-      <c r="BB3">
-        <v>59972000000</v>
-      </c>
-      <c r="BC3">
-        <v>66883500000</v>
-      </c>
-      <c r="BD3">
-        <v>66883500000</v>
-      </c>
-      <c r="BE3">
-        <v>66883500000</v>
-      </c>
-      <c r="BF3">
-        <v>73795000000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>18760000000</v>
-      </c>
-      <c r="E4">
-        <v>20955000000</v>
-      </c>
-      <c r="F4">
-        <v>20955000000</v>
-      </c>
-      <c r="G4">
-        <v>20955000000</v>
-      </c>
-      <c r="H4">
-        <v>23150000000</v>
-      </c>
-      <c r="I4">
-        <v>20064000000</v>
-      </c>
-      <c r="J4">
-        <v>20064000000</v>
-      </c>
-      <c r="K4">
-        <v>20064000000</v>
-      </c>
-      <c r="L4">
-        <v>16978000000</v>
-      </c>
-      <c r="M4">
-        <v>19420500000</v>
-      </c>
-      <c r="N4">
-        <v>19420500000</v>
-      </c>
-      <c r="O4">
-        <v>19420500000</v>
-      </c>
-      <c r="P4">
-        <v>21863000000</v>
-      </c>
-      <c r="Q4">
-        <v>21968500000</v>
-      </c>
-      <c r="R4">
-        <v>21968500000</v>
-      </c>
-      <c r="S4">
-        <v>21968500000</v>
-      </c>
-      <c r="T4">
-        <v>22074000000</v>
-      </c>
-      <c r="U4">
-        <v>17133500000</v>
-      </c>
-      <c r="V4">
-        <v>17133500000</v>
-      </c>
-      <c r="W4">
-        <v>17133500000</v>
-      </c>
-      <c r="X4">
-        <v>12193000000</v>
-      </c>
-      <c r="Y4">
-        <v>14495500000</v>
-      </c>
-      <c r="Z4">
-        <v>14495500000</v>
-      </c>
-      <c r="AA4">
-        <v>14495500000</v>
-      </c>
-      <c r="AB4">
-        <v>16798000000</v>
-      </c>
-      <c r="AC4">
-        <v>19001000000</v>
-      </c>
-      <c r="AD4">
-        <v>19001000000</v>
-      </c>
-      <c r="AE4">
-        <v>19001000000</v>
-      </c>
-      <c r="AF4">
-        <v>21204000000</v>
-      </c>
-      <c r="AG4">
-        <v>18887500000</v>
-      </c>
-      <c r="AH4">
-        <v>18887500000</v>
-      </c>
-      <c r="AI4">
-        <v>18887500000</v>
-      </c>
-      <c r="AJ4">
-        <v>16571000000</v>
-      </c>
-      <c r="AK4">
-        <v>27905500000</v>
-      </c>
-      <c r="AL4">
-        <v>27905500000</v>
-      </c>
-      <c r="AM4">
-        <v>27905500000</v>
-      </c>
-      <c r="AN4">
-        <v>39240000000</v>
-      </c>
-      <c r="AO4">
-        <v>41760500000</v>
-      </c>
-      <c r="AP4">
-        <v>41760500000</v>
-      </c>
-      <c r="AQ4">
-        <v>41760500000</v>
-      </c>
-      <c r="AR4">
-        <v>44281000000</v>
-      </c>
-      <c r="AS4">
-        <v>52776000000</v>
-      </c>
-      <c r="AT4">
-        <v>52776000000</v>
-      </c>
-      <c r="AU4">
-        <v>52776000000</v>
-      </c>
-      <c r="AV4">
-        <v>61271000000</v>
-      </c>
-      <c r="AW4">
-        <v>67004500000</v>
-      </c>
-      <c r="AX4">
-        <v>67004500000</v>
-      </c>
-      <c r="AY4">
-        <v>67004500000</v>
-      </c>
-      <c r="AZ4">
-        <v>72738000000</v>
-      </c>
-      <c r="BA4">
-        <v>72549500000</v>
-      </c>
-      <c r="BB4">
-        <v>72549500000</v>
-      </c>
-      <c r="BC4">
-        <v>72549500000</v>
-      </c>
-      <c r="BD4">
-        <v>72361000000</v>
-      </c>
-      <c r="BE4">
-        <v>80248500000</v>
-      </c>
-      <c r="BF4">
-        <v>80248500000</v>
-      </c>
-      <c r="BG4">
-        <v>80248500000</v>
-      </c>
-      <c r="BH4">
-        <v>88136000000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>5704000000</v>
-      </c>
-      <c r="C5">
-        <v>9858500000</v>
-      </c>
-      <c r="D5">
-        <v>9858500000</v>
-      </c>
-      <c r="E5">
-        <v>14013000000</v>
-      </c>
-      <c r="F5">
-        <v>19967500000</v>
-      </c>
-      <c r="G5">
-        <v>19967500000</v>
-      </c>
-      <c r="H5">
-        <v>19967500000</v>
-      </c>
-      <c r="I5">
-        <v>25922000000</v>
-      </c>
-      <c r="J5">
-        <v>33827500000</v>
-      </c>
-      <c r="K5">
-        <v>33827500000</v>
-      </c>
-      <c r="L5">
-        <v>33827500000</v>
-      </c>
-      <c r="M5">
-        <v>41733000000</v>
-      </c>
-      <c r="N5">
-        <v>39385000000</v>
-      </c>
-      <c r="O5">
-        <v>39385000000</v>
-      </c>
-      <c r="P5">
-        <v>39385000000</v>
-      </c>
-      <c r="Q5">
-        <v>37037000000</v>
-      </c>
-      <c r="R5">
-        <v>38273500000</v>
-      </c>
-      <c r="S5">
-        <v>38273500000</v>
-      </c>
-      <c r="T5">
-        <v>38273500000</v>
-      </c>
-      <c r="U5">
-        <v>39510000000</v>
-      </c>
-      <c r="V5">
-        <v>46452000000</v>
-      </c>
-      <c r="W5">
-        <v>46452000000</v>
-      </c>
-      <c r="X5">
-        <v>46452000000</v>
-      </c>
-      <c r="Y5">
-        <v>53394000000</v>
-      </c>
-      <c r="Z5">
-        <v>49540500000</v>
-      </c>
-      <c r="AA5">
-        <v>49540500000</v>
-      </c>
-      <c r="AB5">
-        <v>49540500000</v>
-      </c>
-      <c r="AC5">
-        <v>45687000000</v>
-      </c>
-      <c r="AD5">
-        <v>47019000000</v>
-      </c>
-      <c r="AE5">
-        <v>47019000000</v>
-      </c>
-      <c r="AF5">
-        <v>47019000000</v>
-      </c>
-      <c r="AG5">
-        <v>48351000000</v>
-      </c>
-      <c r="AH5">
-        <v>53941000000</v>
-      </c>
-      <c r="AI5">
-        <v>53941000000</v>
-      </c>
-      <c r="AJ5">
-        <v>53941000000</v>
-      </c>
-      <c r="AK5">
-        <v>59531000000</v>
-      </c>
-      <c r="AL5">
-        <v>57393500000</v>
-      </c>
-      <c r="AM5">
-        <v>57393500000</v>
-      </c>
-      <c r="AN5">
-        <v>57393500000</v>
-      </c>
-      <c r="AO5">
-        <v>55256000000</v>
-      </c>
-      <c r="AP5">
-        <v>56333500000</v>
-      </c>
-      <c r="AQ5">
-        <v>56333500000</v>
-      </c>
-      <c r="AR5">
-        <v>56333500000</v>
-      </c>
-      <c r="AS5">
-        <v>57411000000</v>
-      </c>
-      <c r="AT5">
-        <v>76045500000</v>
-      </c>
-      <c r="AU5">
-        <v>76045500000</v>
-      </c>
-      <c r="AV5">
-        <v>76045500000</v>
-      </c>
-      <c r="AW5">
-        <v>94680000000</v>
-      </c>
-      <c r="AX5">
-        <v>97241500000</v>
-      </c>
-      <c r="AY5">
-        <v>97241500000</v>
-      </c>
-      <c r="AZ5">
-        <v>97241500000</v>
-      </c>
-      <c r="BA5">
-        <v>99803000000</v>
-      </c>
-      <c r="BB5">
-        <v>98399000000</v>
-      </c>
-      <c r="BC5">
-        <v>98399000000</v>
-      </c>
-      <c r="BD5">
-        <v>98399000000</v>
-      </c>
-      <c r="BE5">
-        <v>96995000000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>902000000</v>
-      </c>
-      <c r="D6">
-        <v>1027000000</v>
-      </c>
-      <c r="E6">
-        <v>1027000000</v>
-      </c>
-      <c r="F6">
-        <v>1152000000</v>
-      </c>
-      <c r="G6">
-        <v>891500000</v>
-      </c>
-      <c r="H6">
-        <v>891500000</v>
-      </c>
-      <c r="I6">
-        <v>891500000</v>
-      </c>
-      <c r="J6">
-        <v>631000000</v>
-      </c>
-      <c r="K6">
-        <v>296000000</v>
-      </c>
-      <c r="L6">
-        <v>296000000</v>
-      </c>
-      <c r="M6">
-        <v>296000000</v>
-      </c>
-      <c r="N6">
-        <v>-39000000</v>
-      </c>
-      <c r="O6">
-        <v>117500000</v>
-      </c>
-      <c r="P6">
-        <v>117500000</v>
-      </c>
-      <c r="Q6">
-        <v>117500000</v>
-      </c>
-      <c r="R6">
-        <v>274000000</v>
-      </c>
-      <c r="S6">
-        <v>16500000</v>
-      </c>
-      <c r="T6">
-        <v>16500000</v>
-      </c>
-      <c r="U6">
-        <v>16500000</v>
-      </c>
-      <c r="V6">
-        <v>-241000000</v>
-      </c>
-      <c r="W6">
-        <v>177500000</v>
-      </c>
-      <c r="X6">
-        <v>177500000</v>
-      </c>
-      <c r="Y6">
-        <v>177500000</v>
-      </c>
-      <c r="Z6">
-        <v>596000000</v>
-      </c>
-      <c r="AA6">
-        <v>1483500000</v>
-      </c>
-      <c r="AB6">
-        <v>1483500000</v>
-      </c>
-      <c r="AC6">
-        <v>1483500000</v>
-      </c>
-      <c r="AD6">
-        <v>2371000000</v>
-      </c>
-      <c r="AE6">
-        <v>2702000000</v>
-      </c>
-      <c r="AF6">
-        <v>2702000000</v>
-      </c>
-      <c r="AG6">
-        <v>2702000000</v>
-      </c>
-      <c r="AH6">
-        <v>3033000000</v>
-      </c>
-      <c r="AI6">
-        <v>6553000000</v>
-      </c>
-      <c r="AJ6">
-        <v>6553000000</v>
-      </c>
-      <c r="AK6">
-        <v>6553000000</v>
-      </c>
-      <c r="AL6">
-        <v>10073000000</v>
-      </c>
-      <c r="AM6">
-        <v>10830500000</v>
-      </c>
-      <c r="AN6">
-        <v>10830500000</v>
-      </c>
-      <c r="AO6">
-        <v>10830500000</v>
-      </c>
-      <c r="AP6">
-        <v>11588000000</v>
-      </c>
-      <c r="AQ6">
-        <v>16459500000</v>
-      </c>
-      <c r="AR6">
-        <v>16459500000</v>
-      </c>
-      <c r="AS6">
-        <v>16459500000</v>
-      </c>
-      <c r="AT6">
-        <v>21331000000</v>
-      </c>
-      <c r="AU6">
-        <v>27347500000</v>
-      </c>
-      <c r="AV6">
-        <v>27347500000</v>
-      </c>
-      <c r="AW6">
-        <v>27347500000</v>
-      </c>
-      <c r="AX6">
-        <v>33364000000</v>
-      </c>
-      <c r="AY6">
-        <v>15321000000</v>
-      </c>
-      <c r="AZ6">
-        <v>15321000000</v>
-      </c>
-      <c r="BA6">
-        <v>15321000000</v>
-      </c>
-      <c r="BB6">
-        <v>-2722000000</v>
-      </c>
-      <c r="BC6">
-        <v>13851500000</v>
-      </c>
-      <c r="BD6">
-        <v>13851500000</v>
-      </c>
-      <c r="BE6">
-        <v>13851500000</v>
-      </c>
-      <c r="BF6">
-        <v>30425000000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="N7">
-        <v>53000000</v>
-      </c>
-      <c r="O7">
-        <v>776500000</v>
-      </c>
-      <c r="P7">
-        <v>776500000</v>
-      </c>
-      <c r="Q7">
-        <v>776500000</v>
-      </c>
-      <c r="R7">
-        <v>1500000000</v>
-      </c>
-      <c r="S7">
-        <v>2220000000</v>
-      </c>
-      <c r="T7">
-        <v>2220000000</v>
-      </c>
-      <c r="U7">
-        <v>2220000000</v>
-      </c>
-      <c r="V7">
-        <v>2940000000</v>
-      </c>
-      <c r="W7">
-        <v>3314000000</v>
-      </c>
-      <c r="X7">
-        <v>3314000000</v>
-      </c>
-      <c r="Y7">
-        <v>3314000000</v>
-      </c>
-      <c r="Z7">
-        <v>3688000000</v>
-      </c>
-      <c r="AA7">
-        <v>6952500000</v>
-      </c>
-      <c r="AB7">
-        <v>6952500000</v>
-      </c>
-      <c r="AC7">
-        <v>6952500000</v>
-      </c>
-      <c r="AD7">
-        <v>10217000000</v>
-      </c>
-      <c r="AE7">
-        <v>13075500000</v>
-      </c>
-      <c r="AF7">
-        <v>13075500000</v>
-      </c>
-      <c r="AG7">
-        <v>13075500000</v>
-      </c>
-      <c r="AH7">
-        <v>15934000000</v>
-      </c>
-      <c r="AI7">
-        <v>19023000000</v>
-      </c>
-      <c r="AJ7">
-        <v>19023000000</v>
-      </c>
-      <c r="AK7">
-        <v>19023000000</v>
-      </c>
-      <c r="AL7">
-        <v>22112000000</v>
-      </c>
-      <c r="AM7">
-        <v>20298500000</v>
-      </c>
-      <c r="AN7">
-        <v>20298500000</v>
-      </c>
-      <c r="AO7">
-        <v>20298500000</v>
-      </c>
-      <c r="AP7">
-        <v>18485000000</v>
-      </c>
-      <c r="AQ7">
-        <v>23815500000</v>
-      </c>
-      <c r="AR7">
-        <v>23815500000</v>
-      </c>
-      <c r="AS7">
-        <v>23815500000</v>
-      </c>
-      <c r="AT7">
-        <v>29146000000</v>
-      </c>
-      <c r="AU7">
-        <v>34258000000</v>
-      </c>
-      <c r="AV7">
-        <v>34258000000</v>
-      </c>
-      <c r="AW7">
-        <v>34258000000</v>
-      </c>
-      <c r="AX7">
-        <v>39370000000</v>
-      </c>
-      <c r="AY7">
-        <v>31285000000</v>
-      </c>
-      <c r="AZ7">
-        <v>31285000000</v>
-      </c>
-      <c r="BA7">
-        <v>31285000000</v>
-      </c>
-      <c r="BB7">
-        <v>23200000000</v>
-      </c>
-      <c r="BC7">
-        <v>31149000000</v>
-      </c>
-      <c r="BD7">
-        <v>31149000000</v>
-      </c>
-      <c r="BE7">
-        <v>31149000000</v>
-      </c>
-      <c r="BF7">
-        <v>39098000000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:60" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="J8">
-        <v>-254411000</v>
-      </c>
-      <c r="K8">
-        <v>-325312000</v>
-      </c>
-      <c r="L8">
-        <v>-325312000</v>
-      </c>
-      <c r="M8">
-        <v>-325312000</v>
-      </c>
-      <c r="N8">
-        <v>-396213000</v>
-      </c>
-      <c r="O8">
-        <v>-235113500</v>
-      </c>
-      <c r="P8">
-        <v>-235113500</v>
-      </c>
-      <c r="Q8">
-        <v>-235113500</v>
-      </c>
-      <c r="R8">
-        <v>-74014000</v>
-      </c>
-      <c r="S8">
-        <v>-184027000</v>
-      </c>
-      <c r="T8">
-        <v>-184027000</v>
-      </c>
-      <c r="U8">
-        <v>-184027000</v>
-      </c>
-      <c r="V8">
-        <v>-294040000</v>
-      </c>
-      <c r="W8">
-        <v>-591351500</v>
-      </c>
-      <c r="X8">
-        <v>-591351500</v>
-      </c>
-      <c r="Y8">
-        <v>-591351500</v>
-      </c>
-      <c r="Z8">
-        <v>-888663000</v>
-      </c>
-      <c r="AA8">
-        <v>-781788500</v>
-      </c>
-      <c r="AB8">
-        <v>-781788500</v>
-      </c>
-      <c r="AC8">
-        <v>-781788500</v>
-      </c>
-      <c r="AD8">
-        <v>-674914000</v>
-      </c>
-      <c r="AE8">
-        <v>-1318157000</v>
-      </c>
-      <c r="AF8">
-        <v>-1318157000</v>
-      </c>
-      <c r="AG8">
-        <v>-1318157000</v>
-      </c>
-      <c r="AH8">
-        <v>-1961400000</v>
-      </c>
-      <c r="AI8">
-        <v>-1468745500</v>
-      </c>
-      <c r="AJ8">
-        <v>-1468745500</v>
-      </c>
-      <c r="AK8">
-        <v>-1468745500</v>
-      </c>
-      <c r="AL8">
-        <v>-976091000</v>
-      </c>
-      <c r="AM8">
-        <v>-919045500</v>
-      </c>
-      <c r="AN8">
-        <v>-919045500</v>
-      </c>
-      <c r="AO8">
-        <v>-919045500</v>
-      </c>
-      <c r="AP8">
-        <v>-862000000</v>
-      </c>
-      <c r="AQ8">
-        <v>-70500000</v>
-      </c>
-      <c r="AR8">
-        <v>-70500000</v>
-      </c>
-      <c r="AS8">
-        <v>-70500000</v>
-      </c>
-      <c r="AT8">
-        <v>721000000</v>
-      </c>
-      <c r="AU8">
-        <v>3120000000</v>
-      </c>
-      <c r="AV8">
-        <v>3120000000</v>
-      </c>
-      <c r="AW8">
-        <v>3120000000</v>
-      </c>
-      <c r="AX8">
-        <v>5519000000</v>
-      </c>
-      <c r="AY8">
-        <v>9037500000</v>
-      </c>
-      <c r="AZ8">
-        <v>9037500000</v>
-      </c>
-      <c r="BA8">
-        <v>9037500000</v>
-      </c>
-      <c r="BB8">
-        <v>12556000000</v>
-      </c>
-      <c r="BC8">
-        <v>13776500000</v>
-      </c>
-      <c r="BD8">
-        <v>13776500000</v>
-      </c>
-      <c r="BE8">
-        <v>13776500000</v>
-      </c>
-      <c r="BF8">
-        <v>14997000000</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/StockAnalyzer/Documents/FCF.xlsx
+++ b/StockAnalyzer/Documents/FCF.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\r\Rollover\StockAnalyzer\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F65CCE8E-06BE-4C5F-BE25-66F969FF4F2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFBBB0F4-20CD-473A-B0F0-7FFD6B7F4038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-54120" yWindow="8430" windowWidth="25440" windowHeight="15390" firstSheet="1" activeTab="8" xr2:uid="{86B76565-99B1-4BFD-86A7-84DD5AE41E2F}"/>
+    <workbookView xWindow="-54120" yWindow="8430" windowWidth="25440" windowHeight="15390" firstSheet="1" activeTab="3" xr2:uid="{86B76565-99B1-4BFD-86A7-84DD5AE41E2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3189,15 +3189,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>607299</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>573027</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3220,8 +3220,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1" y="0"/>
-          <a:ext cx="9160748" cy="4276725"/>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9793227" cy="4572000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6077,8 +6077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5578540F-370E-4D3A-9855-F911478645D9}">
   <dimension ref="A1:X34"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8151,8 +8151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A386F8A-B404-4301-A885-C6A5DD5C5A53}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
